--- a/config_12.15/permission_server_config.xlsx
+++ b/config_12.15/permission_server_config.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4535" uniqueCount="1979">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4540" uniqueCount="1981">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -9206,6 +9206,14 @@
   </si>
   <si>
     <t>signin_cpl</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>signin_notcpl</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼非CPL用户</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -10022,11 +10030,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q437"/>
+  <dimension ref="A1:Q439"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A408" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A437" sqref="A437"/>
+      <selection pane="bottomLeft" activeCell="A439" sqref="A439"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -14598,6 +14606,17 @@
       </c>
       <c r="C437" s="3">
         <v>347</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A439" s="27" t="s">
+        <v>1979</v>
+      </c>
+      <c r="B439" s="27" t="s">
+        <v>1980</v>
+      </c>
+      <c r="C439" s="3">
+        <v>348</v>
       </c>
     </row>
   </sheetData>
@@ -26012,13 +26031,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:I880"/>
+  <dimension ref="A1:I881"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C854" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C860" sqref="C860"/>
+      <selection pane="bottomRight" activeCell="E881" sqref="E881"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -46336,6 +46355,29 @@
         <v>1</v>
       </c>
       <c r="G880" s="10" t="s">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="881" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A881" s="8">
+        <v>880</v>
+      </c>
+      <c r="B881" s="9">
+        <v>348</v>
+      </c>
+      <c r="C881" s="10" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D881" s="15" t="s">
+        <v>1966</v>
+      </c>
+      <c r="E881" s="8">
+        <v>5</v>
+      </c>
+      <c r="F881" s="8">
+        <v>1</v>
+      </c>
+      <c r="G881" s="10" t="s">
         <v>1939</v>
       </c>
     </row>

--- a/config_12.15/permission_server_config.xlsx
+++ b/config_12.15/permission_server_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4540" uniqueCount="1981">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4582" uniqueCount="1987">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -9214,6 +9214,30 @@
   </si>
   <si>
     <t>3D捕鱼非CPL用户</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_task_fish_daily_1_2_cpl</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_task_fish_daily_no_cps_cpl</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_task_fish_daily_1_2_no_cps_cpl</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕鱼每日任务（不是CPS）（是CPL）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕鱼每日任务（新玩家，免费，小额）（是CPL）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕鱼每日任务（新玩家，免费，小额） （只是CPL）</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -9300,7 +9324,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="21">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9421,6 +9445,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -9450,7 +9480,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -9753,6 +9783,19 @@
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -10032,7 +10075,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q439"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A408" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A439" sqref="A439"/>
     </sheetView>
@@ -14632,10 +14675,10 @@
   <dimension ref="A1:O342"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D311" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="E317" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C192" sqref="C192"/>
+      <selection pane="bottomRight" activeCell="A337" sqref="A337:XFD339"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -26007,6 +26050,108 @@
         <v>1928</v>
       </c>
     </row>
+    <row r="337" spans="1:12" s="114" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A337" s="112">
+        <v>336</v>
+      </c>
+      <c r="B337" s="112">
+        <v>1</v>
+      </c>
+      <c r="C337" s="113" t="s">
+        <v>1981</v>
+      </c>
+      <c r="D337" s="113" t="s">
+        <v>1986</v>
+      </c>
+      <c r="E337" s="112"/>
+      <c r="F337" s="112"/>
+      <c r="G337" s="112">
+        <v>303</v>
+      </c>
+      <c r="H337" s="112" t="b">
+        <v>1</v>
+      </c>
+      <c r="I337" s="114" t="b">
+        <v>1</v>
+      </c>
+      <c r="J337" s="113" t="s">
+        <v>1142</v>
+      </c>
+      <c r="K337" s="112">
+        <v>1598889600</v>
+      </c>
+      <c r="L337" s="113" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="338" spans="1:12" s="114" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A338" s="112">
+        <v>337</v>
+      </c>
+      <c r="B338" s="112">
+        <v>1</v>
+      </c>
+      <c r="C338" s="113" t="s">
+        <v>1982</v>
+      </c>
+      <c r="D338" s="113" t="s">
+        <v>1984</v>
+      </c>
+      <c r="E338" s="112"/>
+      <c r="F338" s="112"/>
+      <c r="G338" s="112">
+        <v>310</v>
+      </c>
+      <c r="H338" s="112" t="b">
+        <v>1</v>
+      </c>
+      <c r="I338" s="114" t="b">
+        <v>1</v>
+      </c>
+      <c r="J338" s="113" t="s">
+        <v>1142</v>
+      </c>
+      <c r="K338" s="112">
+        <v>1598889600</v>
+      </c>
+      <c r="L338" s="113" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="339" spans="1:12" s="114" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A339" s="112">
+        <v>338</v>
+      </c>
+      <c r="B339" s="112">
+        <v>1</v>
+      </c>
+      <c r="C339" s="113" t="s">
+        <v>1983</v>
+      </c>
+      <c r="D339" s="113" t="s">
+        <v>1985</v>
+      </c>
+      <c r="E339" s="112"/>
+      <c r="F339" s="112"/>
+      <c r="G339" s="112">
+        <v>311</v>
+      </c>
+      <c r="H339" s="112" t="b">
+        <v>1</v>
+      </c>
+      <c r="I339" s="114" t="b">
+        <v>1</v>
+      </c>
+      <c r="J339" s="113" t="s">
+        <v>1142</v>
+      </c>
+      <c r="K339" s="112">
+        <v>1598889600</v>
+      </c>
+      <c r="L339" s="113" t="s">
+        <v>1193</v>
+      </c>
+    </row>
     <row r="342" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A342" s="17"/>
       <c r="B342" s="17"/>
@@ -26031,13 +26176,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:I881"/>
+  <dimension ref="A1:I891"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C854" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C863" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E881" sqref="E881"/>
+      <selection pane="bottomRight" activeCell="C884" sqref="C884"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -46379,6 +46524,236 @@
       </c>
       <c r="G881" s="10" t="s">
         <v>1939</v>
+      </c>
+    </row>
+    <row r="882" spans="1:7" s="115" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A882" s="115">
+        <v>881</v>
+      </c>
+      <c r="B882" s="115">
+        <v>349</v>
+      </c>
+      <c r="C882" s="116" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D882" s="116" t="s">
+        <v>1277</v>
+      </c>
+      <c r="E882" s="115">
+        <v>2</v>
+      </c>
+      <c r="F882" s="115">
+        <v>1</v>
+      </c>
+      <c r="G882" s="116" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="883" spans="1:7" s="115" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A883" s="115">
+        <v>882</v>
+      </c>
+      <c r="B883" s="115">
+        <v>349</v>
+      </c>
+      <c r="C883" s="116" t="s">
+        <v>865</v>
+      </c>
+      <c r="D883" s="116" t="s">
+        <v>870</v>
+      </c>
+      <c r="E883" s="115">
+        <v>2</v>
+      </c>
+      <c r="F883" s="115">
+        <v>2</v>
+      </c>
+      <c r="G883" s="116" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="884" spans="1:7" s="115" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A884" s="115">
+        <v>883</v>
+      </c>
+      <c r="B884" s="115">
+        <v>349</v>
+      </c>
+      <c r="C884" s="116" t="s">
+        <v>865</v>
+      </c>
+      <c r="D884" s="116" t="s">
+        <v>874</v>
+      </c>
+      <c r="E884" s="115">
+        <v>2</v>
+      </c>
+      <c r="F884" s="115">
+        <v>3</v>
+      </c>
+      <c r="G884" s="116" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="885" spans="1:7" s="115" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A885" s="115">
+        <v>884</v>
+      </c>
+      <c r="B885" s="115">
+        <v>350</v>
+      </c>
+      <c r="C885" s="116" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D885" s="116" t="s">
+        <v>1686</v>
+      </c>
+      <c r="E885" s="115">
+        <v>5</v>
+      </c>
+      <c r="F885" s="115">
+        <v>1</v>
+      </c>
+      <c r="G885" s="116" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="886" spans="1:7" s="115" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A886" s="115">
+        <v>885</v>
+      </c>
+      <c r="B886" s="115">
+        <v>351</v>
+      </c>
+      <c r="C886" s="116" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D886" s="116" t="s">
+        <v>1733</v>
+      </c>
+      <c r="E886" s="115">
+        <v>2</v>
+      </c>
+      <c r="F886" s="115">
+        <v>1</v>
+      </c>
+      <c r="G886" s="116" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="887" spans="1:7" s="115" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A887" s="115">
+        <v>886</v>
+      </c>
+      <c r="B887" s="115">
+        <v>351</v>
+      </c>
+      <c r="C887" s="116" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D887" s="116" t="s">
+        <v>1686</v>
+      </c>
+      <c r="E887" s="115">
+        <v>5</v>
+      </c>
+      <c r="F887" s="115">
+        <v>1</v>
+      </c>
+      <c r="G887" s="116" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="888" spans="1:7" s="115" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A888" s="115">
+        <v>887</v>
+      </c>
+      <c r="B888" s="115">
+        <v>351</v>
+      </c>
+      <c r="C888" s="116" t="s">
+        <v>865</v>
+      </c>
+      <c r="D888" s="116" t="s">
+        <v>870</v>
+      </c>
+      <c r="E888" s="115">
+        <v>2</v>
+      </c>
+      <c r="F888" s="115">
+        <v>2</v>
+      </c>
+      <c r="G888" s="116" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="889" spans="1:7" s="115" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A889" s="115">
+        <v>888</v>
+      </c>
+      <c r="B889" s="115">
+        <v>351</v>
+      </c>
+      <c r="C889" s="116" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D889" s="116" t="s">
+        <v>1686</v>
+      </c>
+      <c r="E889" s="115">
+        <v>5</v>
+      </c>
+      <c r="F889" s="115">
+        <v>2</v>
+      </c>
+      <c r="G889" s="116" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="890" spans="1:7" s="115" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A890" s="115">
+        <v>889</v>
+      </c>
+      <c r="B890" s="115">
+        <v>351</v>
+      </c>
+      <c r="C890" s="116" t="s">
+        <v>865</v>
+      </c>
+      <c r="D890" s="116" t="s">
+        <v>874</v>
+      </c>
+      <c r="E890" s="115">
+        <v>2</v>
+      </c>
+      <c r="F890" s="115">
+        <v>3</v>
+      </c>
+      <c r="G890" s="116" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="891" spans="1:7" s="115" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A891" s="115">
+        <v>890</v>
+      </c>
+      <c r="B891" s="115">
+        <v>351</v>
+      </c>
+      <c r="C891" s="116" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D891" s="116" t="s">
+        <v>1686</v>
+      </c>
+      <c r="E891" s="115">
+        <v>5</v>
+      </c>
+      <c r="F891" s="115">
+        <v>3</v>
+      </c>
+      <c r="G891" s="116" t="s">
+        <v>1687</v>
       </c>
     </row>
   </sheetData>

--- a/config_12.15/permission_server_config.xlsx
+++ b/config_12.15/permission_server_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4569" uniqueCount="1988">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4585" uniqueCount="1996">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -9242,6 +9242,38 @@
   </si>
   <si>
     <t>hlby_type_plat</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>jjsl_enter_limit</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>金鸡送礼</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>xycj_enter_limit</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运抽奖</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>share_condition</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3d捕鱼官方</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼cpl</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>cjj_cpl</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -10070,11 +10102,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q438"/>
+  <dimension ref="A1:Q440"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A416" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A432" sqref="A432"/>
+      <selection pane="bottomLeft" activeCell="A437" sqref="A437:XFD437"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -14648,15 +14680,37 @@
         <v>347</v>
       </c>
     </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A438" s="27" t="s">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A437" s="27" t="s">
         <v>1971</v>
       </c>
-      <c r="B438" s="27" t="s">
+      <c r="B437" s="27" t="s">
         <v>1972</v>
       </c>
-      <c r="C438" s="3">
+      <c r="C437" s="3">
         <v>348</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A439" s="27" t="s">
+        <v>1988</v>
+      </c>
+      <c r="B439" s="27" t="s">
+        <v>1989</v>
+      </c>
+      <c r="C439" s="3">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A440" s="27" t="s">
+        <v>1990</v>
+      </c>
+      <c r="B440" s="27" t="s">
+        <v>1991</v>
+      </c>
+      <c r="C440" s="3">
+        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -26124,13 +26178,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:I888"/>
+  <dimension ref="A1:I892"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C856" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C792" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A875" sqref="A875"/>
+      <selection pane="bottomRight" activeCell="D813" sqref="D813"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -44863,7 +44917,7 @@
         <v>1045</v>
       </c>
       <c r="D812" s="10" t="s">
-        <v>1954</v>
+        <v>1995</v>
       </c>
       <c r="E812" s="9">
         <v>5</v>
@@ -46633,6 +46687,98 @@
       </c>
       <c r="G888" s="10" t="s">
         <v>1539</v>
+      </c>
+    </row>
+    <row r="889" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A889" s="8">
+        <v>888</v>
+      </c>
+      <c r="B889" s="9">
+        <v>351</v>
+      </c>
+      <c r="C889" s="10" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D889" s="15" t="s">
+        <v>1950</v>
+      </c>
+      <c r="E889" s="8">
+        <v>2</v>
+      </c>
+      <c r="F889" s="8">
+        <v>1</v>
+      </c>
+      <c r="G889" s="10" t="s">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="890" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A890" s="8">
+        <v>889</v>
+      </c>
+      <c r="B890" s="9">
+        <v>352</v>
+      </c>
+      <c r="C890" s="10" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D890" s="15" t="s">
+        <v>1950</v>
+      </c>
+      <c r="E890" s="8">
+        <v>2</v>
+      </c>
+      <c r="F890" s="8">
+        <v>1</v>
+      </c>
+      <c r="G890" s="10" t="s">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="891" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A891" s="8">
+        <v>890</v>
+      </c>
+      <c r="B891" s="9">
+        <v>352</v>
+      </c>
+      <c r="C891" s="10" t="s">
+        <v>1992</v>
+      </c>
+      <c r="D891" s="15" t="s">
+        <v>1628</v>
+      </c>
+      <c r="E891" s="8">
+        <v>2</v>
+      </c>
+      <c r="F891" s="8">
+        <v>2</v>
+      </c>
+      <c r="G891" s="10" t="s">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="892" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A892" s="8">
+        <v>891</v>
+      </c>
+      <c r="B892" s="9">
+        <v>352</v>
+      </c>
+      <c r="C892" s="10" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D892" s="15" t="s">
+        <v>1860</v>
+      </c>
+      <c r="E892" s="8">
+        <v>2</v>
+      </c>
+      <c r="F892" s="8">
+        <v>3</v>
+      </c>
+      <c r="G892" s="10" t="s">
+        <v>1994</v>
       </c>
     </row>
   </sheetData>

--- a/config_12.15/permission_server_config.xlsx
+++ b/config_12.15/permission_server_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -7908,23 +7908,11 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>消消乐下注1000鲸币</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>消消乐下注5000鲸币</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>消消乐下注10000鲸币</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>消消乐下注30000鲸币</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>消消乐下注6000鲸币</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -9274,6 +9262,18 @@
   </si>
   <si>
     <t>cjj_cpl</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>消消乐下注1000鲸币</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>消消乐下注60000鲸币</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -10104,9 +10104,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q440"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A416" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A437" sqref="A437:XFD437"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A401" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C415" sqref="C415:C427"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11311,7 +11311,7 @@
         <v>134</v>
       </c>
       <c r="B71" s="53" t="s">
-        <v>1718</v>
+        <v>1993</v>
       </c>
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
@@ -11329,7 +11329,7 @@
         <v>135</v>
       </c>
       <c r="B72" s="53" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="C72" s="9"/>
       <c r="D72" s="9"/>
@@ -11347,9 +11347,11 @@
         <v>136</v>
       </c>
       <c r="B73" s="53" t="s">
-        <v>1720</v>
-      </c>
-      <c r="C73" s="9"/>
+        <v>1994</v>
+      </c>
+      <c r="C73" s="57">
+        <v>22</v>
+      </c>
       <c r="D73" s="9"/>
       <c r="E73" s="9"/>
       <c r="F73" s="9"/>
@@ -11365,7 +11367,7 @@
         <v>137</v>
       </c>
       <c r="B74" s="53" t="s">
-        <v>1721</v>
+        <v>1719</v>
       </c>
       <c r="C74" s="57">
         <v>22</v>
@@ -11379,7 +11381,7 @@
         <v>138</v>
       </c>
       <c r="B75" s="53" t="s">
-        <v>1722</v>
+        <v>1720</v>
       </c>
       <c r="C75" s="57">
         <v>22</v>
@@ -11394,10 +11396,10 @@
         <v>139</v>
       </c>
       <c r="B76" s="53" t="s">
-        <v>1723</v>
+        <v>1721</v>
       </c>
       <c r="C76" s="57">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D76" s="9"/>
       <c r="E76" s="9"/>
@@ -11409,7 +11411,7 @@
         <v>140</v>
       </c>
       <c r="B77" s="53" t="s">
-        <v>1724</v>
+        <v>1722</v>
       </c>
       <c r="C77" s="57">
         <v>23</v>
@@ -11424,10 +11426,10 @@
         <v>141</v>
       </c>
       <c r="B78" s="53" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="C78" s="9">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D78" s="9"/>
       <c r="E78" s="59"/>
@@ -11439,10 +11441,10 @@
         <v>142</v>
       </c>
       <c r="B79" s="53" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="C79" s="9">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D79" s="9"/>
       <c r="E79" s="9"/>
@@ -11454,10 +11456,10 @@
         <v>143</v>
       </c>
       <c r="B80" s="53" t="s">
-        <v>1727</v>
+        <v>1725</v>
       </c>
       <c r="C80" s="9">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D80" s="4"/>
       <c r="E80" s="4"/>
@@ -11469,7 +11471,7 @@
         <v>144</v>
       </c>
       <c r="B81" s="53" t="s">
-        <v>1728</v>
+        <v>1726</v>
       </c>
       <c r="C81" s="9">
         <v>26</v>
@@ -11484,7 +11486,7 @@
         <v>145</v>
       </c>
       <c r="B82" s="53" t="s">
-        <v>1729</v>
+        <v>1995</v>
       </c>
       <c r="C82" s="9">
         <v>26</v>
@@ -11536,7 +11538,9 @@
       <c r="B87" s="53" t="s">
         <v>153</v>
       </c>
-      <c r="C87" s="9"/>
+      <c r="C87" s="57">
+        <v>22</v>
+      </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
@@ -11568,7 +11572,7 @@
         <v>159</v>
       </c>
       <c r="C90" s="57">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
@@ -11590,7 +11594,7 @@
         <v>163</v>
       </c>
       <c r="C92" s="9">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.2">
@@ -11601,7 +11605,7 @@
         <v>165</v>
       </c>
       <c r="C93" s="9">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.2">
@@ -11612,7 +11616,7 @@
         <v>167</v>
       </c>
       <c r="C94" s="9">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.2">
@@ -12464,7 +12468,7 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="34" t="s">
-        <v>1774</v>
+        <v>1771</v>
       </c>
       <c r="B182" s="10" t="s">
         <v>293</v>
@@ -12679,7 +12683,7 @@
     </row>
     <row r="202" spans="1:10" s="65" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A202" s="64" t="s">
-        <v>1869</v>
+        <v>1866</v>
       </c>
       <c r="B202" s="64" t="s">
         <v>332</v>
@@ -14033,7 +14037,7 @@
         <v>1391</v>
       </c>
       <c r="B353" s="27" t="s">
-        <v>1920</v>
+        <v>1917</v>
       </c>
       <c r="C353" s="3">
         <v>226</v>
@@ -14096,10 +14100,10 @@
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A359" s="27" t="s">
-        <v>1857</v>
+        <v>1854</v>
       </c>
       <c r="B359" s="27" t="s">
-        <v>1858</v>
+        <v>1855</v>
       </c>
       <c r="C359" s="3">
         <v>8</v>
@@ -14107,10 +14111,10 @@
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A360" s="27" t="s">
-        <v>1922</v>
+        <v>1919</v>
       </c>
       <c r="B360" s="27" t="s">
-        <v>1921</v>
+        <v>1918</v>
       </c>
       <c r="C360" s="3">
         <v>343</v>
@@ -14129,10 +14133,10 @@
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A364" s="27" t="s">
-        <v>1818</v>
+        <v>1815</v>
       </c>
       <c r="B364" s="34" t="s">
-        <v>1819</v>
+        <v>1816</v>
       </c>
       <c r="C364" s="3">
         <v>332</v>
@@ -14143,7 +14147,7 @@
         <v>1473</v>
       </c>
       <c r="B365" s="34" t="s">
-        <v>1816</v>
+        <v>1813</v>
       </c>
       <c r="C365" s="3">
         <v>242</v>
@@ -14165,7 +14169,7 @@
         <v>1469</v>
       </c>
       <c r="B367" s="27" t="s">
-        <v>1817</v>
+        <v>1814</v>
       </c>
       <c r="C367" s="3">
         <v>244</v>
@@ -14176,7 +14180,7 @@
         <v>1507</v>
       </c>
       <c r="B370" s="27" t="s">
-        <v>1757</v>
+        <v>1754</v>
       </c>
       <c r="C370" s="3">
         <v>248</v>
@@ -14184,7 +14188,7 @@
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A372" s="27" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="B372" s="27" t="s">
         <v>1531</v>
@@ -14261,10 +14265,10 @@
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A385" s="27" t="s">
-        <v>1768</v>
+        <v>1765</v>
       </c>
       <c r="B385" s="27" t="s">
-        <v>1754</v>
+        <v>1751</v>
       </c>
       <c r="C385" s="3">
         <v>326</v>
@@ -14272,10 +14276,10 @@
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A387" s="27" t="s">
-        <v>1769</v>
+        <v>1766</v>
       </c>
       <c r="B387" s="27" t="s">
-        <v>1755</v>
+        <v>1752</v>
       </c>
       <c r="C387" s="3">
         <v>327</v>
@@ -14283,10 +14287,10 @@
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A389" s="27" t="s">
-        <v>1761</v>
+        <v>1758</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>1759</v>
+        <v>1756</v>
       </c>
       <c r="C389" s="3">
         <v>328</v>
@@ -14294,10 +14298,10 @@
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A391" s="27" t="s">
-        <v>1771</v>
+        <v>1768</v>
       </c>
       <c r="B391" s="27" t="s">
-        <v>1770</v>
+        <v>1767</v>
       </c>
       <c r="C391" s="3">
         <v>319</v>
@@ -14305,10 +14309,10 @@
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A393" s="34" t="s">
-        <v>1780</v>
+        <v>1777</v>
       </c>
       <c r="B393" s="34" t="s">
-        <v>1789</v>
+        <v>1786</v>
       </c>
       <c r="C393" s="8">
         <v>127</v>
@@ -14316,10 +14320,10 @@
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A394" s="34" t="s">
-        <v>1781</v>
+        <v>1778</v>
       </c>
       <c r="B394" s="34" t="s">
-        <v>1790</v>
+        <v>1787</v>
       </c>
       <c r="C394" s="8">
         <v>128</v>
@@ -14327,10 +14331,10 @@
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A395" s="34" t="s">
-        <v>1782</v>
+        <v>1779</v>
       </c>
       <c r="B395" s="34" t="s">
-        <v>1791</v>
+        <v>1788</v>
       </c>
       <c r="C395" s="8">
         <v>129</v>
@@ -14338,10 +14342,10 @@
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A396" s="34" t="s">
-        <v>1783</v>
+        <v>1780</v>
       </c>
       <c r="B396" s="34" t="s">
-        <v>1792</v>
+        <v>1789</v>
       </c>
       <c r="C396" s="8">
         <v>130</v>
@@ -14349,10 +14353,10 @@
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A397" s="34" t="s">
-        <v>1784</v>
+        <v>1781</v>
       </c>
       <c r="B397" s="34" t="s">
-        <v>1793</v>
+        <v>1790</v>
       </c>
       <c r="C397" s="8">
         <v>131</v>
@@ -14360,10 +14364,10 @@
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A398" s="34" t="s">
-        <v>1785</v>
+        <v>1782</v>
       </c>
       <c r="B398" s="34" t="s">
-        <v>1794</v>
+        <v>1791</v>
       </c>
       <c r="C398" s="8">
         <v>132</v>
@@ -14371,10 +14375,10 @@
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A399" s="34" t="s">
-        <v>1786</v>
+        <v>1783</v>
       </c>
       <c r="B399" s="34" t="s">
-        <v>1795</v>
+        <v>1792</v>
       </c>
       <c r="C399" s="8">
         <v>133</v>
@@ -14382,10 +14386,10 @@
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A400" s="34" t="s">
-        <v>1787</v>
+        <v>1784</v>
       </c>
       <c r="B400" s="34" t="s">
-        <v>1796</v>
+        <v>1793</v>
       </c>
       <c r="C400" s="8">
         <v>134</v>
@@ -14393,10 +14397,10 @@
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A401" s="34" t="s">
-        <v>1788</v>
+        <v>1785</v>
       </c>
       <c r="B401" s="34" t="s">
-        <v>1797</v>
+        <v>1794</v>
       </c>
       <c r="C401" s="8">
         <v>135</v>
@@ -14404,10 +14408,10 @@
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A403" s="27" t="s">
-        <v>1826</v>
+        <v>1823</v>
       </c>
       <c r="B403" s="27" t="s">
-        <v>1827</v>
+        <v>1824</v>
       </c>
       <c r="C403" s="3">
         <v>333</v>
@@ -14415,10 +14419,10 @@
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A404" s="27" t="s">
-        <v>1828</v>
+        <v>1825</v>
       </c>
       <c r="B404" s="27" t="s">
-        <v>1829</v>
+        <v>1826</v>
       </c>
       <c r="C404" s="3">
         <v>333</v>
@@ -14426,10 +14430,10 @@
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A405" s="27" t="s">
-        <v>1830</v>
+        <v>1827</v>
       </c>
       <c r="B405" s="27" t="s">
-        <v>1831</v>
+        <v>1828</v>
       </c>
       <c r="C405" s="3">
         <v>333</v>
@@ -14437,10 +14441,10 @@
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A406" s="27" t="s">
-        <v>1832</v>
+        <v>1829</v>
       </c>
       <c r="B406" s="27" t="s">
-        <v>1833</v>
+        <v>1830</v>
       </c>
       <c r="C406" s="3">
         <v>333</v>
@@ -14448,10 +14452,10 @@
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A407" s="27" t="s">
-        <v>1834</v>
+        <v>1831</v>
       </c>
       <c r="B407" s="27" t="s">
-        <v>1835</v>
+        <v>1832</v>
       </c>
       <c r="C407" s="3">
         <v>333</v>
@@ -14459,10 +14463,10 @@
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A409" s="27" t="s">
-        <v>1841</v>
+        <v>1838</v>
       </c>
       <c r="B409" s="27" t="s">
-        <v>1842</v>
+        <v>1839</v>
       </c>
       <c r="C409" s="3">
         <v>91</v>
@@ -14470,10 +14474,10 @@
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A411" s="27" t="s">
-        <v>1886</v>
+        <v>1883</v>
       </c>
       <c r="B411" s="27" t="s">
-        <v>1887</v>
+        <v>1884</v>
       </c>
       <c r="C411" s="3">
         <v>339</v>
@@ -14481,10 +14485,10 @@
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A413" s="3" t="s">
-        <v>1892</v>
+        <v>1889</v>
       </c>
       <c r="B413" s="3" t="s">
-        <v>1893</v>
+        <v>1890</v>
       </c>
       <c r="C413" s="3">
         <v>326</v>
@@ -14492,46 +14496,48 @@
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A415" s="34" t="s">
-        <v>1894</v>
+        <v>1891</v>
       </c>
       <c r="B415" s="10" t="s">
-        <v>1895</v>
+        <v>1892</v>
       </c>
       <c r="C415" s="9"/>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A416" s="18" t="s">
-        <v>1896</v>
+        <v>1893</v>
       </c>
       <c r="B416" s="10" t="s">
-        <v>1897</v>
+        <v>1894</v>
       </c>
       <c r="C416" s="9"/>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A417" s="18" t="s">
-        <v>1898</v>
+        <v>1895</v>
       </c>
       <c r="B417" s="10" t="s">
-        <v>1899</v>
+        <v>1896</v>
       </c>
       <c r="C417" s="9"/>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A418" s="18" t="s">
-        <v>1900</v>
+        <v>1897</v>
       </c>
       <c r="B418" s="10" t="s">
-        <v>1901</v>
-      </c>
-      <c r="C418" s="9"/>
+        <v>1898</v>
+      </c>
+      <c r="C418" s="57">
+        <v>22</v>
+      </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A419" s="18" t="s">
-        <v>1902</v>
+        <v>1899</v>
       </c>
       <c r="B419" s="10" t="s">
-        <v>1903</v>
+        <v>1900</v>
       </c>
       <c r="C419" s="57">
         <v>22</v>
@@ -14539,10 +14545,10 @@
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A420" s="18" t="s">
-        <v>1904</v>
+        <v>1901</v>
       </c>
       <c r="B420" s="10" t="s">
-        <v>1905</v>
+        <v>1902</v>
       </c>
       <c r="C420" s="57">
         <v>22</v>
@@ -14550,21 +14556,21 @@
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A421" s="18" t="s">
-        <v>1906</v>
+        <v>1903</v>
       </c>
       <c r="B421" s="10" t="s">
-        <v>1907</v>
+        <v>1904</v>
       </c>
       <c r="C421" s="57">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A422" s="18" t="s">
-        <v>1908</v>
+        <v>1905</v>
       </c>
       <c r="B422" s="10" t="s">
-        <v>1909</v>
+        <v>1906</v>
       </c>
       <c r="C422" s="57">
         <v>23</v>
@@ -14572,43 +14578,43 @@
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A423" s="18" t="s">
-        <v>1910</v>
+        <v>1907</v>
       </c>
       <c r="B423" s="10" t="s">
-        <v>1911</v>
+        <v>1908</v>
       </c>
       <c r="C423" s="9">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A424" s="18" t="s">
-        <v>1912</v>
+        <v>1909</v>
       </c>
       <c r="B424" s="10" t="s">
-        <v>1913</v>
+        <v>1910</v>
       </c>
       <c r="C424" s="9">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A425" s="18" t="s">
-        <v>1914</v>
+        <v>1911</v>
       </c>
       <c r="B425" s="10" t="s">
-        <v>1915</v>
+        <v>1912</v>
       </c>
       <c r="C425" s="9">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A426" s="18" t="s">
-        <v>1916</v>
+        <v>1913</v>
       </c>
       <c r="B426" s="10" t="s">
-        <v>1917</v>
+        <v>1914</v>
       </c>
       <c r="C426" s="9">
         <v>26</v>
@@ -14616,10 +14622,10 @@
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A427" s="18" t="s">
-        <v>1918</v>
+        <v>1915</v>
       </c>
       <c r="B427" s="10" t="s">
-        <v>1919</v>
+        <v>1916</v>
       </c>
       <c r="C427" s="9">
         <v>26</v>
@@ -14627,10 +14633,10 @@
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A429" s="27" t="s">
-        <v>1923</v>
+        <v>1920</v>
       </c>
       <c r="B429" s="27" t="s">
-        <v>1924</v>
+        <v>1921</v>
       </c>
       <c r="C429" s="3">
         <v>342</v>
@@ -14638,10 +14644,10 @@
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A431" s="27" t="s">
-        <v>1987</v>
+        <v>1984</v>
       </c>
       <c r="B431" s="27" t="s">
-        <v>1982</v>
+        <v>1979</v>
       </c>
       <c r="C431" s="3">
         <v>344</v>
@@ -14649,10 +14655,10 @@
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A432" s="27" t="s">
-        <v>1983</v>
+        <v>1980</v>
       </c>
       <c r="B432" s="27" t="s">
-        <v>1984</v>
+        <v>1981</v>
       </c>
       <c r="C432" s="3">
         <v>345</v>
@@ -14660,10 +14666,10 @@
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A434" s="27" t="s">
-        <v>1967</v>
+        <v>1964</v>
       </c>
       <c r="B434" s="27" t="s">
-        <v>1953</v>
+        <v>1950</v>
       </c>
       <c r="C434" s="3">
         <v>346</v>
@@ -14671,10 +14677,10 @@
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A436" s="27" t="s">
-        <v>1970</v>
+        <v>1967</v>
       </c>
       <c r="B436" s="27" t="s">
-        <v>1969</v>
+        <v>1966</v>
       </c>
       <c r="C436" s="3">
         <v>347</v>
@@ -14682,10 +14688,10 @@
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A437" s="27" t="s">
-        <v>1971</v>
+        <v>1968</v>
       </c>
       <c r="B437" s="27" t="s">
-        <v>1972</v>
+        <v>1969</v>
       </c>
       <c r="C437" s="3">
         <v>348</v>
@@ -14693,10 +14699,10 @@
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A439" s="27" t="s">
-        <v>1988</v>
+        <v>1985</v>
       </c>
       <c r="B439" s="27" t="s">
-        <v>1989</v>
+        <v>1986</v>
       </c>
       <c r="C439" s="3">
         <v>351</v>
@@ -14704,10 +14710,10 @@
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A440" s="27" t="s">
-        <v>1990</v>
+        <v>1987</v>
       </c>
       <c r="B440" s="27" t="s">
-        <v>1991</v>
+        <v>1988</v>
       </c>
       <c r="C440" s="3">
         <v>352</v>
@@ -14911,7 +14917,7 @@
         <v>1513</v>
       </c>
       <c r="N4" s="34" t="s">
-        <v>1882</v>
+        <v>1879</v>
       </c>
       <c r="O4" s="17"/>
     </row>
@@ -15067,7 +15073,7 @@
         <v>469</v>
       </c>
       <c r="M8" s="38" t="s">
-        <v>1773</v>
+        <v>1770</v>
       </c>
       <c r="N8" s="38" t="s">
         <v>1180</v>
@@ -20779,7 +20785,7 @@
         <v>0</v>
       </c>
       <c r="C176" s="10" t="s">
-        <v>1775</v>
+        <v>1772</v>
       </c>
       <c r="D176" s="16" t="s">
         <v>774</v>
@@ -21326,7 +21332,7 @@
         <v>0</v>
       </c>
       <c r="C192" s="44" t="s">
-        <v>1949</v>
+        <v>1946</v>
       </c>
       <c r="D192" s="44" t="s">
         <v>803</v>
@@ -24385,7 +24391,7 @@
         <v>1</v>
       </c>
       <c r="C284" s="16" t="s">
-        <v>1763</v>
+        <v>1760</v>
       </c>
       <c r="D284" s="17" t="s">
         <v>1631</v>
@@ -24578,7 +24584,7 @@
         <v>1605542400</v>
       </c>
       <c r="L289" s="78" t="s">
-        <v>1877</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="290" spans="1:12" s="80" customFormat="1" x14ac:dyDescent="0.2">
@@ -24612,7 +24618,7 @@
         <v>1605542400</v>
       </c>
       <c r="L290" s="78" t="s">
-        <v>1877</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="291" spans="1:12" s="80" customFormat="1" x14ac:dyDescent="0.2">
@@ -24646,7 +24652,7 @@
         <v>1605542400</v>
       </c>
       <c r="L291" s="78" t="s">
-        <v>1877</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="292" spans="1:12" s="80" customFormat="1" x14ac:dyDescent="0.2">
@@ -24657,10 +24663,10 @@
         <v>1</v>
       </c>
       <c r="C292" s="79" t="s">
-        <v>1875</v>
+        <v>1872</v>
       </c>
       <c r="D292" s="79" t="s">
-        <v>1876</v>
+        <v>1873</v>
       </c>
       <c r="E292" s="78"/>
       <c r="F292" s="78"/>
@@ -24680,7 +24686,7 @@
         <v>1605542400</v>
       </c>
       <c r="L292" s="109" t="s">
-        <v>1878</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.2">
@@ -24915,7 +24921,7 @@
         <v>1</v>
       </c>
       <c r="C300" s="30" t="s">
-        <v>1772</v>
+        <v>1769</v>
       </c>
       <c r="D300" s="16" t="s">
         <v>1683</v>
@@ -25043,7 +25049,7 @@
         <v>1</v>
       </c>
       <c r="C304" s="30" t="s">
-        <v>1981</v>
+        <v>1978</v>
       </c>
       <c r="D304" s="30" t="s">
         <v>1690</v>
@@ -25427,10 +25433,10 @@
         <v>1</v>
       </c>
       <c r="C316" s="16" t="s">
-        <v>1733</v>
+        <v>1730</v>
       </c>
       <c r="D316" s="16" t="s">
-        <v>1734</v>
+        <v>1731</v>
       </c>
       <c r="E316" s="17"/>
       <c r="F316" s="17"/>
@@ -25450,7 +25456,7 @@
         <v>1600731000</v>
       </c>
       <c r="L316" s="16" t="s">
-        <v>1735</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="317" spans="1:12" x14ac:dyDescent="0.2">
@@ -25461,10 +25467,10 @@
         <v>1</v>
       </c>
       <c r="C317" s="30" t="s">
-        <v>1738</v>
+        <v>1735</v>
       </c>
       <c r="D317" s="30" t="s">
-        <v>1740</v>
+        <v>1737</v>
       </c>
       <c r="G317" s="26">
         <v>322</v>
@@ -25482,7 +25488,7 @@
         <v>1601335800</v>
       </c>
       <c r="L317" s="30" t="s">
-        <v>1736</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="318" spans="1:12" x14ac:dyDescent="0.2">
@@ -25493,10 +25499,10 @@
         <v>1</v>
       </c>
       <c r="C318" s="30" t="s">
-        <v>1762</v>
+        <v>1759</v>
       </c>
       <c r="D318" s="30" t="s">
-        <v>1737</v>
+        <v>1734</v>
       </c>
       <c r="G318" s="26">
         <v>323</v>
@@ -25514,7 +25520,7 @@
         <v>1601335800</v>
       </c>
       <c r="L318" s="30" t="s">
-        <v>1736</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="319" spans="1:12" x14ac:dyDescent="0.2">
@@ -25525,10 +25531,10 @@
         <v>1</v>
       </c>
       <c r="C319" s="26" t="s">
-        <v>1739</v>
+        <v>1736</v>
       </c>
       <c r="D319" s="26" t="s">
-        <v>1746</v>
+        <v>1743</v>
       </c>
       <c r="G319" s="26">
         <v>323</v>
@@ -25546,7 +25552,7 @@
         <v>1601335800</v>
       </c>
       <c r="L319" s="30" t="s">
-        <v>1736</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="320" spans="1:12" x14ac:dyDescent="0.2">
@@ -25557,10 +25563,10 @@
         <v>1</v>
       </c>
       <c r="C320" s="30" t="s">
-        <v>1767</v>
+        <v>1764</v>
       </c>
       <c r="D320" s="16" t="s">
-        <v>1741</v>
+        <v>1738</v>
       </c>
       <c r="G320" s="26">
         <v>324</v>
@@ -25589,10 +25595,10 @@
         <v>1</v>
       </c>
       <c r="C321" s="30" t="s">
-        <v>1747</v>
+        <v>1744</v>
       </c>
       <c r="D321" s="26" t="s">
-        <v>1748</v>
+        <v>1745</v>
       </c>
       <c r="G321" s="26">
         <v>325</v>
@@ -25610,7 +25616,7 @@
         <v>1601335800</v>
       </c>
       <c r="L321" s="30" t="s">
-        <v>1736</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="322" spans="1:12" x14ac:dyDescent="0.2">
@@ -25621,10 +25627,10 @@
         <v>1</v>
       </c>
       <c r="C322" s="30" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="D322" s="30" t="s">
-        <v>1764</v>
+        <v>1761</v>
       </c>
       <c r="G322" s="26">
         <v>328</v>
@@ -25642,7 +25648,7 @@
         <v>1603152000</v>
       </c>
       <c r="L322" s="30" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="323" spans="1:12" x14ac:dyDescent="0.2">
@@ -25653,10 +25659,10 @@
         <v>1</v>
       </c>
       <c r="C323" s="30" t="s">
-        <v>1776</v>
+        <v>1773</v>
       </c>
       <c r="D323" s="30" t="s">
-        <v>1764</v>
+        <v>1761</v>
       </c>
       <c r="G323" s="26">
         <v>329</v>
@@ -25674,7 +25680,7 @@
         <v>1603152000</v>
       </c>
       <c r="L323" s="30" t="s">
-        <v>1805</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="324" spans="1:12" x14ac:dyDescent="0.2">
@@ -25685,10 +25691,10 @@
         <v>1</v>
       </c>
       <c r="C324" s="30" t="s">
-        <v>1839</v>
+        <v>1836</v>
       </c>
       <c r="D324" s="30" t="s">
-        <v>1777</v>
+        <v>1774</v>
       </c>
       <c r="G324" s="26">
         <v>326</v>
@@ -25717,10 +25723,10 @@
         <v>1</v>
       </c>
       <c r="C325" s="30" t="s">
-        <v>1779</v>
+        <v>1776</v>
       </c>
       <c r="D325" s="30" t="s">
-        <v>1778</v>
+        <v>1775</v>
       </c>
       <c r="G325" s="26">
         <v>327</v>
@@ -25749,10 +25755,10 @@
         <v>1</v>
       </c>
       <c r="C326" s="30" t="s">
-        <v>1814</v>
+        <v>1811</v>
       </c>
       <c r="D326" s="30" t="s">
-        <v>1813</v>
+        <v>1810</v>
       </c>
       <c r="G326" s="26">
         <v>330</v>
@@ -25770,7 +25776,7 @@
         <v>1603756800</v>
       </c>
       <c r="L326" s="30" t="s">
-        <v>1806</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="327" spans="1:12" x14ac:dyDescent="0.2">
@@ -25781,10 +25787,10 @@
         <v>1</v>
       </c>
       <c r="C327" s="30" t="s">
-        <v>1815</v>
+        <v>1812</v>
       </c>
       <c r="D327" s="30" t="s">
-        <v>1804</v>
+        <v>1801</v>
       </c>
       <c r="G327" s="26">
         <v>331</v>
@@ -25802,7 +25808,7 @@
         <v>1603756800</v>
       </c>
       <c r="L327" s="30" t="s">
-        <v>1852</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="328" spans="1:12" x14ac:dyDescent="0.2">
@@ -25813,10 +25819,10 @@
         <v>1</v>
       </c>
       <c r="C328" s="26" t="s">
-        <v>1872</v>
+        <v>1869</v>
       </c>
       <c r="D328" s="26" t="s">
-        <v>1843</v>
+        <v>1840</v>
       </c>
       <c r="G328" s="26">
         <v>334</v>
@@ -25845,10 +25851,10 @@
         <v>1</v>
       </c>
       <c r="C329" s="26" t="s">
-        <v>1844</v>
+        <v>1841</v>
       </c>
       <c r="D329" s="26" t="s">
-        <v>1845</v>
+        <v>1842</v>
       </c>
       <c r="G329" s="26">
         <v>334</v>
@@ -25877,10 +25883,10 @@
         <v>1</v>
       </c>
       <c r="C330" s="26" t="s">
-        <v>1846</v>
+        <v>1843</v>
       </c>
       <c r="D330" s="26" t="s">
-        <v>1845</v>
+        <v>1842</v>
       </c>
       <c r="G330" s="26">
         <v>334</v>
@@ -25892,7 +25898,7 @@
         <v>1</v>
       </c>
       <c r="J330" s="30" t="s">
-        <v>1884</v>
+        <v>1881</v>
       </c>
       <c r="K330" s="26">
         <v>0</v>
@@ -25909,10 +25915,10 @@
         <v>1</v>
       </c>
       <c r="C331" s="26" t="s">
-        <v>1847</v>
+        <v>1844</v>
       </c>
       <c r="D331" s="26" t="s">
-        <v>1848</v>
+        <v>1845</v>
       </c>
       <c r="G331" s="26">
         <v>335</v>
@@ -25941,10 +25947,10 @@
         <v>1</v>
       </c>
       <c r="C332" s="101" t="s">
-        <v>1854</v>
+        <v>1851</v>
       </c>
       <c r="D332" s="101" t="s">
-        <v>1851</v>
+        <v>1848</v>
       </c>
       <c r="E332" s="100"/>
       <c r="F332" s="100"/>
@@ -25964,7 +25970,7 @@
         <v>1604332800</v>
       </c>
       <c r="L332" s="101" t="s">
-        <v>1853</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="333" spans="1:12" x14ac:dyDescent="0.2">
@@ -25975,10 +25981,10 @@
         <v>1</v>
       </c>
       <c r="C333" s="30" t="s">
-        <v>1879</v>
+        <v>1876</v>
       </c>
       <c r="D333" s="26" t="s">
-        <v>1865</v>
+        <v>1862</v>
       </c>
       <c r="G333" s="26">
         <v>337</v>
@@ -25990,7 +25996,7 @@
         <v>1</v>
       </c>
       <c r="J333" s="26" t="s">
-        <v>1880</v>
+        <v>1877</v>
       </c>
       <c r="K333" s="26">
         <v>0</v>
@@ -26007,10 +26013,10 @@
         <v>1</v>
       </c>
       <c r="C334" s="16" t="s">
-        <v>1885</v>
+        <v>1882</v>
       </c>
       <c r="D334" s="16" t="s">
-        <v>1883</v>
+        <v>1880</v>
       </c>
       <c r="E334" s="17"/>
       <c r="F334" s="17"/>
@@ -26041,10 +26047,10 @@
         <v>1</v>
       </c>
       <c r="C335" s="16" t="s">
-        <v>1925</v>
+        <v>1922</v>
       </c>
       <c r="D335" s="16" t="s">
-        <v>1926</v>
+        <v>1923</v>
       </c>
       <c r="E335" s="17"/>
       <c r="F335" s="17"/>
@@ -26064,7 +26070,7 @@
         <v>1606176000</v>
       </c>
       <c r="L335" s="16" t="s">
-        <v>1927</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="336" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -26075,10 +26081,10 @@
         <v>1</v>
       </c>
       <c r="C336" s="16" t="s">
-        <v>1928</v>
+        <v>1925</v>
       </c>
       <c r="D336" s="16" t="s">
-        <v>1929</v>
+        <v>1926</v>
       </c>
       <c r="E336" s="17"/>
       <c r="F336" s="17"/>
@@ -26098,7 +26104,7 @@
         <v>1606176000</v>
       </c>
       <c r="L336" s="16" t="s">
-        <v>1927</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="337" spans="1:12" x14ac:dyDescent="0.2">
@@ -26109,10 +26115,10 @@
         <v>1</v>
       </c>
       <c r="C337" s="30" t="s">
-        <v>1980</v>
+        <v>1977</v>
       </c>
       <c r="D337" s="30" t="s">
-        <v>1974</v>
+        <v>1971</v>
       </c>
       <c r="G337" s="17">
         <v>349</v>
@@ -26141,10 +26147,10 @@
         <v>1</v>
       </c>
       <c r="C338" s="30" t="s">
-        <v>1973</v>
+        <v>1970</v>
       </c>
       <c r="D338" s="30" t="s">
-        <v>1975</v>
+        <v>1972</v>
       </c>
       <c r="E338" s="17"/>
       <c r="F338" s="17"/>
@@ -26180,7 +26186,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:I892"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C792" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -28381,7 +28387,7 @@
         <v>865</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>1962</v>
+        <v>1959</v>
       </c>
       <c r="E94" s="8">
         <v>2</v>
@@ -29669,7 +29675,7 @@
         <v>1045</v>
       </c>
       <c r="D150" s="113" t="s">
-        <v>1978</v>
+        <v>1975</v>
       </c>
       <c r="E150" s="112">
         <v>2</v>
@@ -29678,7 +29684,7 @@
         <v>4</v>
       </c>
       <c r="G150" s="113" t="s">
-        <v>1979</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="151" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -30336,7 +30342,7 @@
         <v>1045</v>
       </c>
       <c r="D179" s="94" t="s">
-        <v>1860</v>
+        <v>1857</v>
       </c>
       <c r="E179" s="14">
         <v>2</v>
@@ -30359,7 +30365,7 @@
         <v>1045</v>
       </c>
       <c r="D180" s="94" t="s">
-        <v>1954</v>
+        <v>1951</v>
       </c>
       <c r="E180" s="14">
         <v>2</v>
@@ -30368,7 +30374,7 @@
         <v>5</v>
       </c>
       <c r="G180" s="15" t="s">
-        <v>1861</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="181" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -30750,7 +30756,7 @@
         <v>1045</v>
       </c>
       <c r="D197" s="105" t="s">
-        <v>1860</v>
+        <v>1857</v>
       </c>
       <c r="E197" s="103">
         <v>2</v>
@@ -30773,7 +30779,7 @@
         <v>1045</v>
       </c>
       <c r="D198" s="105" t="s">
-        <v>1954</v>
+        <v>1951</v>
       </c>
       <c r="E198" s="103">
         <v>2</v>
@@ -30782,7 +30788,7 @@
         <v>5</v>
       </c>
       <c r="G198" s="104" t="s">
-        <v>1864</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="199" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -40012,7 +40018,7 @@
         <v>1168</v>
       </c>
       <c r="D599" s="10" t="s">
-        <v>1862</v>
+        <v>1859</v>
       </c>
       <c r="E599" s="8">
         <v>5</v>
@@ -40058,7 +40064,7 @@
         <v>1168</v>
       </c>
       <c r="D601" s="10" t="s">
-        <v>1862</v>
+        <v>1859</v>
       </c>
       <c r="E601" s="8">
         <v>5</v>
@@ -40081,7 +40087,7 @@
         <v>1168</v>
       </c>
       <c r="D602" s="10" t="s">
-        <v>1862</v>
+        <v>1859</v>
       </c>
       <c r="E602" s="14">
         <v>2</v>
@@ -40104,7 +40110,7 @@
         <v>1168</v>
       </c>
       <c r="D603" s="15" t="s">
-        <v>1954</v>
+        <v>1951</v>
       </c>
       <c r="E603" s="14">
         <v>2</v>
@@ -40150,7 +40156,7 @@
         <v>1168</v>
       </c>
       <c r="D605" s="15" t="s">
-        <v>1860</v>
+        <v>1857</v>
       </c>
       <c r="E605" s="14">
         <v>5</v>
@@ -40196,7 +40202,7 @@
         <v>1168</v>
       </c>
       <c r="D607" s="15" t="s">
-        <v>1860</v>
+        <v>1857</v>
       </c>
       <c r="E607" s="14">
         <v>5</v>
@@ -40219,7 +40225,7 @@
         <v>1168</v>
       </c>
       <c r="D608" s="15" t="s">
-        <v>1860</v>
+        <v>1857</v>
       </c>
       <c r="E608" s="14">
         <v>2</v>
@@ -40242,7 +40248,7 @@
         <v>1168</v>
       </c>
       <c r="D609" s="15" t="s">
-        <v>1954</v>
+        <v>1951</v>
       </c>
       <c r="E609" s="14">
         <v>2</v>
@@ -40288,7 +40294,7 @@
         <v>1168</v>
       </c>
       <c r="D611" s="15" t="s">
-        <v>1860</v>
+        <v>1857</v>
       </c>
       <c r="E611" s="8">
         <v>5</v>
@@ -40334,7 +40340,7 @@
         <v>1168</v>
       </c>
       <c r="D613" s="15" t="s">
-        <v>1860</v>
+        <v>1857</v>
       </c>
       <c r="E613" s="8">
         <v>5</v>
@@ -40357,7 +40363,7 @@
         <v>1168</v>
       </c>
       <c r="D614" s="15" t="s">
-        <v>1860</v>
+        <v>1857</v>
       </c>
       <c r="E614" s="14">
         <v>2</v>
@@ -40380,7 +40386,7 @@
         <v>1168</v>
       </c>
       <c r="D615" s="15" t="s">
-        <v>1954</v>
+        <v>1951</v>
       </c>
       <c r="E615" s="14">
         <v>2</v>
@@ -40426,7 +40432,7 @@
         <v>1168</v>
       </c>
       <c r="D617" s="15" t="s">
-        <v>1860</v>
+        <v>1857</v>
       </c>
       <c r="E617" s="8">
         <v>5</v>
@@ -40472,7 +40478,7 @@
         <v>1168</v>
       </c>
       <c r="D619" s="15" t="s">
-        <v>1860</v>
+        <v>1857</v>
       </c>
       <c r="E619" s="8">
         <v>5</v>
@@ -40495,7 +40501,7 @@
         <v>1168</v>
       </c>
       <c r="D620" s="15" t="s">
-        <v>1860</v>
+        <v>1857</v>
       </c>
       <c r="E620" s="14">
         <v>2</v>
@@ -40518,7 +40524,7 @@
         <v>1168</v>
       </c>
       <c r="D621" s="15" t="s">
-        <v>1954</v>
+        <v>1951</v>
       </c>
       <c r="E621" s="14">
         <v>2</v>
@@ -40564,7 +40570,7 @@
         <v>1168</v>
       </c>
       <c r="D623" s="15" t="s">
-        <v>1860</v>
+        <v>1857</v>
       </c>
       <c r="E623" s="8">
         <v>5</v>
@@ -40610,7 +40616,7 @@
         <v>1168</v>
       </c>
       <c r="D625" s="15" t="s">
-        <v>1860</v>
+        <v>1857</v>
       </c>
       <c r="E625" s="8">
         <v>5</v>
@@ -40633,7 +40639,7 @@
         <v>1168</v>
       </c>
       <c r="D626" s="15" t="s">
-        <v>1860</v>
+        <v>1857</v>
       </c>
       <c r="E626" s="14">
         <v>2</v>
@@ -40656,7 +40662,7 @@
         <v>1168</v>
       </c>
       <c r="D627" s="15" t="s">
-        <v>1954</v>
+        <v>1951</v>
       </c>
       <c r="E627" s="14">
         <v>2</v>
@@ -40702,7 +40708,7 @@
         <v>1168</v>
       </c>
       <c r="D629" s="15" t="s">
-        <v>1860</v>
+        <v>1857</v>
       </c>
       <c r="E629" s="8">
         <v>5</v>
@@ -40748,7 +40754,7 @@
         <v>1168</v>
       </c>
       <c r="D631" s="15" t="s">
-        <v>1860</v>
+        <v>1857</v>
       </c>
       <c r="E631" s="8">
         <v>5</v>
@@ -40771,7 +40777,7 @@
         <v>1168</v>
       </c>
       <c r="D632" s="15" t="s">
-        <v>1860</v>
+        <v>1857</v>
       </c>
       <c r="E632" s="14">
         <v>2</v>
@@ -40794,7 +40800,7 @@
         <v>1168</v>
       </c>
       <c r="D633" s="15" t="s">
-        <v>1954</v>
+        <v>1951</v>
       </c>
       <c r="E633" s="14">
         <v>2</v>
@@ -41338,7 +41344,7 @@
         <v>1</v>
       </c>
       <c r="G656" s="53" t="s">
-        <v>1756</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="657" spans="1:7" x14ac:dyDescent="0.2">
@@ -41789,7 +41795,7 @@
         <v>1168</v>
       </c>
       <c r="D676" s="10" t="s">
-        <v>1863</v>
+        <v>1860</v>
       </c>
       <c r="E676" s="8">
         <v>2</v>
@@ -43569,7 +43575,7 @@
         <v>1</v>
       </c>
       <c r="G753" s="15" t="s">
-        <v>1730</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="754" spans="1:7" x14ac:dyDescent="0.2">
@@ -43638,7 +43644,7 @@
         <v>1</v>
       </c>
       <c r="G756" s="15" t="s">
-        <v>1730</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="757" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -43707,7 +43713,7 @@
         <v>1</v>
       </c>
       <c r="G759" s="15" t="s">
-        <v>1730</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="760" spans="1:7" x14ac:dyDescent="0.2">
@@ -43721,7 +43727,7 @@
         <v>1065</v>
       </c>
       <c r="D760" s="10" t="s">
-        <v>1731</v>
+        <v>1728</v>
       </c>
       <c r="E760" s="8">
         <v>2</v>
@@ -43845,7 +43851,7 @@
         <v>1</v>
       </c>
       <c r="G765" s="15" t="s">
-        <v>1730</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="766" spans="1:7" x14ac:dyDescent="0.2">
@@ -44075,7 +44081,7 @@
         <v>1</v>
       </c>
       <c r="G775" s="15" t="s">
-        <v>1730</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="776" spans="1:7" x14ac:dyDescent="0.2">
@@ -44167,7 +44173,7 @@
         <v>1</v>
       </c>
       <c r="G779" s="15" t="s">
-        <v>1730</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="780" spans="1:7" x14ac:dyDescent="0.2">
@@ -44236,7 +44242,7 @@
         <v>1</v>
       </c>
       <c r="G782" s="15" t="s">
-        <v>1730</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="783" spans="1:7" x14ac:dyDescent="0.2">
@@ -44319,7 +44325,7 @@
         <v>1065</v>
       </c>
       <c r="D786" s="10" t="s">
-        <v>1732</v>
+        <v>1729</v>
       </c>
       <c r="E786" s="8">
         <v>2</v>
@@ -44535,7 +44541,7 @@
         <v>1</v>
       </c>
       <c r="G795" s="15" t="s">
-        <v>1730</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="796" spans="1:7" x14ac:dyDescent="0.2">
@@ -44627,7 +44633,7 @@
         <v>1</v>
       </c>
       <c r="G799" s="15" t="s">
-        <v>1730</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="800" spans="1:7" x14ac:dyDescent="0.2">
@@ -44696,7 +44702,7 @@
         <v>1</v>
       </c>
       <c r="G802" s="15" t="s">
-        <v>1730</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="803" spans="1:7" x14ac:dyDescent="0.2">
@@ -44848,7 +44854,7 @@
         <v>1045</v>
       </c>
       <c r="D809" s="9" t="s">
-        <v>1954</v>
+        <v>1951</v>
       </c>
       <c r="E809" s="9">
         <v>5</v>
@@ -44857,7 +44863,7 @@
         <v>1</v>
       </c>
       <c r="G809" s="9" t="s">
-        <v>1750</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="810" spans="1:7" x14ac:dyDescent="0.2">
@@ -44917,7 +44923,7 @@
         <v>1045</v>
       </c>
       <c r="D812" s="10" t="s">
-        <v>1995</v>
+        <v>1992</v>
       </c>
       <c r="E812" s="9">
         <v>5</v>
@@ -44926,7 +44932,7 @@
         <v>1</v>
       </c>
       <c r="G812" s="53" t="s">
-        <v>1821</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="813" spans="1:7" x14ac:dyDescent="0.2">
@@ -45075,10 +45081,10 @@
         <v>324</v>
       </c>
       <c r="C819" s="10" t="s">
-        <v>1742</v>
+        <v>1739</v>
       </c>
       <c r="D819" s="10" t="s">
-        <v>1743</v>
+        <v>1740</v>
       </c>
       <c r="E819" s="8">
         <v>2</v>
@@ -45087,7 +45093,7 @@
         <v>1</v>
       </c>
       <c r="G819" s="10" t="s">
-        <v>1744</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="820" spans="1:7" x14ac:dyDescent="0.2">
@@ -45110,7 +45116,7 @@
         <v>1</v>
       </c>
       <c r="G820" s="10" t="s">
-        <v>1745</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="821" spans="1:7" x14ac:dyDescent="0.2">
@@ -45124,7 +45130,7 @@
         <v>865</v>
       </c>
       <c r="D821" s="10" t="s">
-        <v>1807</v>
+        <v>1804</v>
       </c>
       <c r="E821" s="8">
         <v>2</v>
@@ -45156,7 +45162,7 @@
         <v>2</v>
       </c>
       <c r="G822" s="10" t="s">
-        <v>1749</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="823" spans="1:7" x14ac:dyDescent="0.2">
@@ -45202,7 +45208,7 @@
         <v>3</v>
       </c>
       <c r="G824" s="10" t="s">
-        <v>1749</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="825" spans="1:7" x14ac:dyDescent="0.2">
@@ -45239,7 +45245,7 @@
         <v>1045</v>
       </c>
       <c r="D826" s="9" t="s">
-        <v>1954</v>
+        <v>1951</v>
       </c>
       <c r="E826" s="9">
         <v>2</v>
@@ -45248,7 +45254,7 @@
         <v>1</v>
       </c>
       <c r="G826" s="9" t="s">
-        <v>1750</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="827" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -45262,7 +45268,7 @@
         <v>1045</v>
       </c>
       <c r="D827" s="15" t="s">
-        <v>1860</v>
+        <v>1857</v>
       </c>
       <c r="E827" s="14">
         <v>2</v>
@@ -45271,7 +45277,7 @@
         <v>1</v>
       </c>
       <c r="G827" s="15" t="s">
-        <v>1822</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="828" spans="1:7" x14ac:dyDescent="0.2">
@@ -45285,7 +45291,7 @@
         <v>1045</v>
       </c>
       <c r="D828" s="10" t="s">
-        <v>1823</v>
+        <v>1820</v>
       </c>
       <c r="E828" s="8">
         <v>2</v>
@@ -45294,7 +45300,7 @@
         <v>2</v>
       </c>
       <c r="G828" s="10" t="s">
-        <v>1824</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="829" spans="1:7" x14ac:dyDescent="0.2">
@@ -45308,7 +45314,7 @@
         <v>1045</v>
       </c>
       <c r="D829" s="10" t="s">
-        <v>1825</v>
+        <v>1822</v>
       </c>
       <c r="E829" s="8">
         <v>2</v>
@@ -45328,10 +45334,10 @@
         <v>328</v>
       </c>
       <c r="C830" s="53" t="s">
-        <v>1840</v>
+        <v>1837</v>
       </c>
       <c r="D830" s="9" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
       <c r="E830" s="9">
         <v>5</v>
@@ -45340,7 +45346,7 @@
         <v>1</v>
       </c>
       <c r="G830" s="9" t="s">
-        <v>1760</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="831" spans="1:7" x14ac:dyDescent="0.2">
@@ -45354,7 +45360,7 @@
         <v>1045</v>
       </c>
       <c r="D831" s="9" t="s">
-        <v>1954</v>
+        <v>1951</v>
       </c>
       <c r="E831" s="9">
         <v>5</v>
@@ -45363,7 +45369,7 @@
         <v>1</v>
       </c>
       <c r="G831" s="53" t="s">
-        <v>1838</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="832" spans="1:7" x14ac:dyDescent="0.2">
@@ -45377,7 +45383,7 @@
         <v>897</v>
       </c>
       <c r="D832" s="9" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
       <c r="E832" s="9">
         <v>5</v>
@@ -45386,7 +45392,7 @@
         <v>1</v>
       </c>
       <c r="G832" s="9" t="s">
-        <v>1760</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="833" spans="1:9" x14ac:dyDescent="0.2">
@@ -45400,7 +45406,7 @@
         <v>1045</v>
       </c>
       <c r="D833" s="9" t="s">
-        <v>1954</v>
+        <v>1951</v>
       </c>
       <c r="E833" s="9">
         <v>5</v>
@@ -45409,7 +45415,7 @@
         <v>1</v>
       </c>
       <c r="G833" s="53" t="s">
-        <v>1836</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="834" spans="1:9" x14ac:dyDescent="0.2">
@@ -45420,7 +45426,7 @@
         <v>330</v>
       </c>
       <c r="C834" s="53" t="s">
-        <v>1873</v>
+        <v>1870</v>
       </c>
       <c r="D834" s="9">
         <v>1</v>
@@ -45432,7 +45438,7 @@
         <v>1</v>
       </c>
       <c r="G834" s="53" t="s">
-        <v>1798</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="835" spans="1:9" x14ac:dyDescent="0.2">
@@ -45443,7 +45449,7 @@
         <v>330</v>
       </c>
       <c r="C835" s="53" t="s">
-        <v>1874</v>
+        <v>1871</v>
       </c>
       <c r="D835" s="9">
         <v>3</v>
@@ -45455,7 +45461,7 @@
         <v>1</v>
       </c>
       <c r="G835" s="53" t="s">
-        <v>1799</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="836" spans="1:9" x14ac:dyDescent="0.2">
@@ -45469,7 +45475,7 @@
         <v>1065</v>
       </c>
       <c r="D836" s="53" t="s">
-        <v>1888</v>
+        <v>1885</v>
       </c>
       <c r="E836" s="9">
         <v>5</v>
@@ -45478,7 +45484,7 @@
         <v>1</v>
       </c>
       <c r="G836" s="53" t="s">
-        <v>1811</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="837" spans="1:9" x14ac:dyDescent="0.2">
@@ -45492,7 +45498,7 @@
         <v>865</v>
       </c>
       <c r="D837" s="10" t="s">
-        <v>1807</v>
+        <v>1804</v>
       </c>
       <c r="E837" s="9">
         <v>2</v>
@@ -45501,7 +45507,7 @@
         <v>2</v>
       </c>
       <c r="G837" s="53" t="s">
-        <v>1809</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="838" spans="1:9" x14ac:dyDescent="0.2">
@@ -45524,7 +45530,7 @@
         <v>2</v>
       </c>
       <c r="G838" s="9" t="s">
-        <v>1810</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="839" spans="1:9" x14ac:dyDescent="0.2">
@@ -45547,7 +45553,7 @@
         <v>3</v>
       </c>
       <c r="G839" s="53" t="s">
-        <v>1812</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="840" spans="1:9" x14ac:dyDescent="0.2">
@@ -45561,7 +45567,7 @@
         <v>865</v>
       </c>
       <c r="D840" s="9" t="s">
-        <v>1870</v>
+        <v>1867</v>
       </c>
       <c r="E840" s="9">
         <v>5</v>
@@ -45570,7 +45576,7 @@
         <v>3</v>
       </c>
       <c r="G840" s="9" t="s">
-        <v>1810</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="841" spans="1:9" x14ac:dyDescent="0.2">
@@ -45593,7 +45599,7 @@
         <v>1</v>
       </c>
       <c r="G841" s="53" t="s">
-        <v>1801</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="842" spans="1:9" x14ac:dyDescent="0.2">
@@ -45616,7 +45622,7 @@
         <v>1</v>
       </c>
       <c r="G842" s="53" t="s">
-        <v>1800</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="843" spans="1:9" x14ac:dyDescent="0.2">
@@ -45639,7 +45645,7 @@
         <v>1</v>
       </c>
       <c r="G843" s="53" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="844" spans="1:9" x14ac:dyDescent="0.2">
@@ -45662,7 +45668,7 @@
         <v>1</v>
       </c>
       <c r="G844" s="53" t="s">
-        <v>1820</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="845" spans="1:9" x14ac:dyDescent="0.2">
@@ -45676,7 +45682,7 @@
         <v>1045</v>
       </c>
       <c r="D845" s="9" t="s">
-        <v>1954</v>
+        <v>1951</v>
       </c>
       <c r="E845" s="9">
         <v>5</v>
@@ -45685,7 +45691,7 @@
         <v>1</v>
       </c>
       <c r="G845" s="53" t="s">
-        <v>1836</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="846" spans="1:9" x14ac:dyDescent="0.2">
@@ -45728,7 +45734,7 @@
         <v>1045</v>
       </c>
       <c r="D847" s="9" t="s">
-        <v>1954</v>
+        <v>1951</v>
       </c>
       <c r="E847" s="9">
         <v>2</v>
@@ -45737,7 +45743,7 @@
         <v>1</v>
       </c>
       <c r="G847" s="9" t="s">
-        <v>1849</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="848" spans="1:9" x14ac:dyDescent="0.2">
@@ -45780,7 +45786,7 @@
         <v>1045</v>
       </c>
       <c r="D849" s="9" t="s">
-        <v>1954</v>
+        <v>1951</v>
       </c>
       <c r="E849" s="9">
         <v>2</v>
@@ -45789,7 +45795,7 @@
         <v>1</v>
       </c>
       <c r="G849" s="9" t="s">
-        <v>1849</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="850" spans="1:7" s="98" customFormat="1" x14ac:dyDescent="0.2">
@@ -45800,10 +45806,10 @@
         <v>336</v>
       </c>
       <c r="C850" s="98" t="s">
-        <v>1855</v>
+        <v>1852</v>
       </c>
       <c r="D850" s="99" t="s">
-        <v>1856</v>
+        <v>1853</v>
       </c>
       <c r="E850" s="98">
         <v>5</v>
@@ -45812,7 +45818,7 @@
         <v>1</v>
       </c>
       <c r="G850" s="99" t="s">
-        <v>1850</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="851" spans="1:7" x14ac:dyDescent="0.2">
@@ -45826,7 +45832,7 @@
         <v>1045</v>
       </c>
       <c r="D851" s="9" t="s">
-        <v>1954</v>
+        <v>1951</v>
       </c>
       <c r="E851" s="9">
         <v>5</v>
@@ -45835,7 +45841,7 @@
         <v>1</v>
       </c>
       <c r="G851" s="9" t="s">
-        <v>1849</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="852" spans="1:7" s="106" customFormat="1" x14ac:dyDescent="0.2">
@@ -45849,7 +45855,7 @@
         <v>1045</v>
       </c>
       <c r="D852" s="107" t="s">
-        <v>1866</v>
+        <v>1863</v>
       </c>
       <c r="E852" s="106">
         <v>2</v>
@@ -45858,7 +45864,7 @@
         <v>1</v>
       </c>
       <c r="G852" s="107" t="s">
-        <v>1867</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="853" spans="1:7" s="106" customFormat="1" x14ac:dyDescent="0.2">
@@ -45881,7 +45887,7 @@
         <v>1</v>
       </c>
       <c r="G853" s="107" t="s">
-        <v>1868</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="854" spans="1:7" s="106" customFormat="1" x14ac:dyDescent="0.2">
@@ -45904,7 +45910,7 @@
         <v>1</v>
       </c>
       <c r="G854" s="106" t="s">
-        <v>1871</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="855" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -45918,7 +45924,7 @@
         <v>1045</v>
       </c>
       <c r="D855" s="14" t="s">
-        <v>1954</v>
+        <v>1951</v>
       </c>
       <c r="E855" s="14">
         <v>5</v>
@@ -45927,7 +45933,7 @@
         <v>1</v>
       </c>
       <c r="G855" s="14" t="s">
-        <v>1881</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="856" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -45938,10 +45944,10 @@
         <v>339</v>
       </c>
       <c r="C856" s="10" t="s">
-        <v>1890</v>
+        <v>1887</v>
       </c>
       <c r="D856" s="10" t="s">
-        <v>1889</v>
+        <v>1886</v>
       </c>
       <c r="E856" s="8">
         <v>2</v>
@@ -45950,7 +45956,7 @@
         <v>1</v>
       </c>
       <c r="G856" s="10" t="s">
-        <v>1891</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="857" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -45964,7 +45970,7 @@
         <v>1174</v>
       </c>
       <c r="D857" s="10" t="s">
-        <v>1954</v>
+        <v>1951</v>
       </c>
       <c r="E857" s="8">
         <v>5</v>
@@ -45973,7 +45979,7 @@
         <v>1</v>
       </c>
       <c r="G857" s="10" t="s">
-        <v>1931</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="858" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -45987,7 +45993,7 @@
         <v>1174</v>
       </c>
       <c r="D858" s="10" t="s">
-        <v>1954</v>
+        <v>1951</v>
       </c>
       <c r="E858" s="8">
         <v>2</v>
@@ -45996,7 +46002,7 @@
         <v>1</v>
       </c>
       <c r="G858" s="10" t="s">
-        <v>1942</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="859" spans="1:7" s="110" customFormat="1" x14ac:dyDescent="0.2">
@@ -46010,7 +46016,7 @@
         <v>1045</v>
       </c>
       <c r="D859" s="111" t="s">
-        <v>1943</v>
+        <v>1940</v>
       </c>
       <c r="E859" s="110">
         <v>2</v>
@@ -46019,7 +46025,7 @@
         <v>1</v>
       </c>
       <c r="G859" s="111" t="s">
-        <v>1944</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="860" spans="1:7" s="110" customFormat="1" x14ac:dyDescent="0.2">
@@ -46042,7 +46048,7 @@
         <v>1</v>
       </c>
       <c r="G860" s="111" t="s">
-        <v>1934</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="861" spans="1:7" s="110" customFormat="1" x14ac:dyDescent="0.2">
@@ -46056,7 +46062,7 @@
         <v>1045</v>
       </c>
       <c r="D861" s="111" t="s">
-        <v>1940</v>
+        <v>1937</v>
       </c>
       <c r="E861" s="110">
         <v>2</v>
@@ -46088,7 +46094,7 @@
         <v>2</v>
       </c>
       <c r="G862" s="111" t="s">
-        <v>1934</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="863" spans="1:7" s="110" customFormat="1" x14ac:dyDescent="0.2">
@@ -46102,7 +46108,7 @@
         <v>1045</v>
       </c>
       <c r="D863" s="111" t="s">
-        <v>1941</v>
+        <v>1938</v>
       </c>
       <c r="E863" s="110">
         <v>2</v>
@@ -46111,7 +46117,7 @@
         <v>3</v>
       </c>
       <c r="G863" s="111" t="s">
-        <v>1933</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="864" spans="1:7" s="110" customFormat="1" x14ac:dyDescent="0.2">
@@ -46134,7 +46140,7 @@
         <v>3</v>
       </c>
       <c r="G864" s="111" t="s">
-        <v>1934</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="865" spans="1:7" s="110" customFormat="1" x14ac:dyDescent="0.2">
@@ -46148,7 +46154,7 @@
         <v>1045</v>
       </c>
       <c r="D865" s="110" t="s">
-        <v>1954</v>
+        <v>1951</v>
       </c>
       <c r="E865" s="110">
         <v>2</v>
@@ -46157,7 +46163,7 @@
         <v>4</v>
       </c>
       <c r="G865" s="111" t="s">
-        <v>1934</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="866" spans="1:7" s="110" customFormat="1" x14ac:dyDescent="0.2">
@@ -46180,7 +46186,7 @@
         <v>4</v>
       </c>
       <c r="G866" s="111" t="s">
-        <v>1945</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="867" spans="1:7" x14ac:dyDescent="0.2">
@@ -46191,7 +46197,7 @@
         <v>343</v>
       </c>
       <c r="C867" s="53" t="s">
-        <v>1946</v>
+        <v>1943</v>
       </c>
       <c r="D867" s="9">
         <v>1</v>
@@ -46203,7 +46209,7 @@
         <v>1</v>
       </c>
       <c r="G867" s="10" t="s">
-        <v>1947</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="868" spans="1:7" x14ac:dyDescent="0.2">
@@ -46214,10 +46220,10 @@
         <v>343</v>
       </c>
       <c r="C868" s="10" t="s">
-        <v>1930</v>
+        <v>1927</v>
       </c>
       <c r="D868" s="15" t="s">
-        <v>1932</v>
+        <v>1929</v>
       </c>
       <c r="E868" s="8">
         <v>5</v>
@@ -46226,7 +46232,7 @@
         <v>1</v>
       </c>
       <c r="G868" s="10" t="s">
-        <v>1936</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="869" spans="1:7" x14ac:dyDescent="0.2">
@@ -46237,7 +46243,7 @@
         <v>343</v>
       </c>
       <c r="C869" s="53" t="s">
-        <v>1937</v>
+        <v>1934</v>
       </c>
       <c r="D869" s="9">
         <v>9</v>
@@ -46249,7 +46255,7 @@
         <v>2</v>
       </c>
       <c r="G869" s="10" t="s">
-        <v>1948</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="870" spans="1:7" x14ac:dyDescent="0.2">
@@ -46263,7 +46269,7 @@
         <v>1174</v>
       </c>
       <c r="D870" s="15" t="s">
-        <v>1959</v>
+        <v>1956</v>
       </c>
       <c r="E870" s="8">
         <v>5</v>
@@ -46272,7 +46278,7 @@
         <v>2</v>
       </c>
       <c r="G870" s="10" t="s">
-        <v>1938</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="871" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -46286,7 +46292,7 @@
         <v>1174</v>
       </c>
       <c r="D871" s="15" t="s">
-        <v>1935</v>
+        <v>1932</v>
       </c>
       <c r="E871" s="14">
         <v>2</v>
@@ -46295,7 +46301,7 @@
         <v>3</v>
       </c>
       <c r="G871" s="15" t="s">
-        <v>1936</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="872" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -46309,7 +46315,7 @@
         <v>1174</v>
       </c>
       <c r="D872" s="15" t="s">
-        <v>1954</v>
+        <v>1951</v>
       </c>
       <c r="E872" s="14">
         <v>2</v>
@@ -46318,7 +46324,7 @@
         <v>4</v>
       </c>
       <c r="G872" s="15" t="s">
-        <v>1939</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="873" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -46332,7 +46338,7 @@
         <v>865</v>
       </c>
       <c r="D873" s="10" t="s">
-        <v>1985</v>
+        <v>1982</v>
       </c>
       <c r="E873" s="8">
         <v>5</v>
@@ -46378,7 +46384,7 @@
         <v>1045</v>
       </c>
       <c r="D875" s="10" t="s">
-        <v>1986</v>
+        <v>1983</v>
       </c>
       <c r="E875" s="8">
         <v>2</v>
@@ -46424,7 +46430,7 @@
         <v>865</v>
       </c>
       <c r="D877" s="10" t="s">
-        <v>1985</v>
+        <v>1982</v>
       </c>
       <c r="E877" s="8">
         <v>2</v>
@@ -46470,7 +46476,7 @@
         <v>1045</v>
       </c>
       <c r="D879" s="10" t="s">
-        <v>1968</v>
+        <v>1965</v>
       </c>
       <c r="E879" s="8">
         <v>2</v>
@@ -46516,7 +46522,7 @@
         <v>1168</v>
       </c>
       <c r="D881" s="15" t="s">
-        <v>1957</v>
+        <v>1954</v>
       </c>
       <c r="E881" s="8">
         <v>2</v>
@@ -46525,7 +46531,7 @@
         <v>1</v>
       </c>
       <c r="G881" s="10" t="s">
-        <v>1963</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="882" spans="1:7" x14ac:dyDescent="0.2">
@@ -46539,7 +46545,7 @@
         <v>1045</v>
       </c>
       <c r="D882" s="9" t="s">
-        <v>1958</v>
+        <v>1955</v>
       </c>
       <c r="E882" s="9">
         <v>2</v>
@@ -46548,7 +46554,7 @@
         <v>2</v>
       </c>
       <c r="G882" s="53" t="s">
-        <v>1964</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="883" spans="1:7" x14ac:dyDescent="0.2">
@@ -46562,7 +46568,7 @@
         <v>1045</v>
       </c>
       <c r="D883" s="53" t="s">
-        <v>1960</v>
+        <v>1957</v>
       </c>
       <c r="E883" s="9">
         <v>2</v>
@@ -46571,7 +46577,7 @@
         <v>3</v>
       </c>
       <c r="G883" s="53" t="s">
-        <v>1965</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="884" spans="1:7" x14ac:dyDescent="0.2">
@@ -46585,7 +46591,7 @@
         <v>1045</v>
       </c>
       <c r="D884" s="53" t="s">
-        <v>1961</v>
+        <v>1958</v>
       </c>
       <c r="E884" s="9">
         <v>2</v>
@@ -46594,7 +46600,7 @@
         <v>4</v>
       </c>
       <c r="G884" s="53" t="s">
-        <v>1966</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="885" spans="1:7" x14ac:dyDescent="0.2">
@@ -46608,7 +46614,7 @@
         <v>1174</v>
       </c>
       <c r="D885" s="15" t="s">
-        <v>1959</v>
+        <v>1956</v>
       </c>
       <c r="E885" s="8">
         <v>2</v>
@@ -46617,7 +46623,7 @@
         <v>1</v>
       </c>
       <c r="G885" s="10" t="s">
-        <v>1938</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="886" spans="1:7" x14ac:dyDescent="0.2">
@@ -46631,7 +46637,7 @@
         <v>1168</v>
       </c>
       <c r="D886" s="15" t="s">
-        <v>1959</v>
+        <v>1956</v>
       </c>
       <c r="E886" s="8">
         <v>5</v>
@@ -46640,7 +46646,7 @@
         <v>1</v>
       </c>
       <c r="G886" s="10" t="s">
-        <v>1938</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="887" spans="1:7" x14ac:dyDescent="0.2">
@@ -46663,7 +46669,7 @@
         <v>1</v>
       </c>
       <c r="G887" s="10" t="s">
-        <v>1977</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="888" spans="1:7" x14ac:dyDescent="0.2">
@@ -46677,7 +46683,7 @@
         <v>1174</v>
       </c>
       <c r="D888" s="15" t="s">
-        <v>1860</v>
+        <v>1857</v>
       </c>
       <c r="E888" s="8">
         <v>2</v>
@@ -46700,7 +46706,7 @@
         <v>1168</v>
       </c>
       <c r="D889" s="15" t="s">
-        <v>1950</v>
+        <v>1947</v>
       </c>
       <c r="E889" s="8">
         <v>2</v>
@@ -46709,7 +46715,7 @@
         <v>1</v>
       </c>
       <c r="G889" s="10" t="s">
-        <v>1963</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="890" spans="1:7" x14ac:dyDescent="0.2">
@@ -46723,7 +46729,7 @@
         <v>1168</v>
       </c>
       <c r="D890" s="15" t="s">
-        <v>1950</v>
+        <v>1947</v>
       </c>
       <c r="E890" s="8">
         <v>2</v>
@@ -46732,7 +46738,7 @@
         <v>1</v>
       </c>
       <c r="G890" s="10" t="s">
-        <v>1963</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="891" spans="1:7" x14ac:dyDescent="0.2">
@@ -46743,7 +46749,7 @@
         <v>352</v>
       </c>
       <c r="C891" s="10" t="s">
-        <v>1992</v>
+        <v>1989</v>
       </c>
       <c r="D891" s="15" t="s">
         <v>1628</v>
@@ -46755,7 +46761,7 @@
         <v>2</v>
       </c>
       <c r="G891" s="10" t="s">
-        <v>1993</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="892" spans="1:7" x14ac:dyDescent="0.2">
@@ -46769,7 +46775,7 @@
         <v>1168</v>
       </c>
       <c r="D892" s="15" t="s">
-        <v>1860</v>
+        <v>1857</v>
       </c>
       <c r="E892" s="8">
         <v>2</v>
@@ -46778,7 +46784,7 @@
         <v>3</v>
       </c>
       <c r="G892" s="10" t="s">
-        <v>1994</v>
+        <v>1991</v>
       </c>
     </row>
   </sheetData>
@@ -46911,7 +46917,7 @@
         <v>897</v>
       </c>
       <c r="D5" s="53" t="s">
-        <v>1751</v>
+        <v>1748</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -46928,13 +46934,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="68" t="s">
-        <v>1860</v>
+        <v>1857</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>897</v>
       </c>
       <c r="D6" s="53" t="s">
-        <v>1837</v>
+        <v>1834</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -46951,10 +46957,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="68" t="s">
-        <v>1976</v>
+        <v>1973</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>1758</v>
+        <v>1755</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>1623</v>
@@ -46980,7 +46986,7 @@
         <v>897</v>
       </c>
       <c r="D8" s="53" t="s">
-        <v>1752</v>
+        <v>1749</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -46997,13 +47003,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="68" t="s">
-        <v>1956</v>
+        <v>1953</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>897</v>
       </c>
       <c r="D9" s="53" t="s">
-        <v>1952</v>
+        <v>1949</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -47012,7 +47018,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>1859</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -47020,13 +47026,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="68" t="s">
-        <v>1968</v>
+        <v>1965</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>897</v>
       </c>
       <c r="D10" s="53" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -47035,7 +47041,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>1859</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -47043,13 +47049,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="68" t="s">
-        <v>1950</v>
+        <v>1947</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>897</v>
       </c>
       <c r="D11" s="53" t="s">
-        <v>1951</v>
+        <v>1948</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -47058,7 +47064,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>1859</v>
+        <v>1856</v>
       </c>
     </row>
   </sheetData>
@@ -47151,7 +47157,7 @@
         <v>865</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>1808</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">

--- a/config_12.15/permission_server_config.xlsx
+++ b/config_12.15/permission_server_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4585" uniqueCount="1996">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4590" uniqueCount="2001">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -9274,6 +9274,26 @@
   </si>
   <si>
     <t>无</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>cjj_vip_desc</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲金鸡VIP描述屏蔽</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>share_condition</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>cjj_official</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲金鸡官方</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -10102,11 +10122,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q440"/>
+  <dimension ref="A1:Q442"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A401" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C415" sqref="C415:C427"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A425" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C443" sqref="C443"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -14717,6 +14737,17 @@
       </c>
       <c r="C440" s="3">
         <v>352</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A442" s="27" t="s">
+        <v>1996</v>
+      </c>
+      <c r="B442" s="27" t="s">
+        <v>1997</v>
+      </c>
+      <c r="C442" s="3">
+        <v>353</v>
       </c>
     </row>
   </sheetData>
@@ -26184,13 +26215,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:I892"/>
+  <dimension ref="A1:I893"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C792" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C873" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D813" sqref="D813"/>
+      <selection pane="bottomRight" activeCell="B893" sqref="B893"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -46785,6 +46816,29 @@
       </c>
       <c r="G892" s="10" t="s">
         <v>1991</v>
+      </c>
+    </row>
+    <row r="893" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A893" s="9">
+        <v>892</v>
+      </c>
+      <c r="B893" s="9">
+        <v>353</v>
+      </c>
+      <c r="C893" s="10" t="s">
+        <v>1998</v>
+      </c>
+      <c r="D893" s="15" t="s">
+        <v>1999</v>
+      </c>
+      <c r="E893" s="8">
+        <v>2</v>
+      </c>
+      <c r="F893" s="8">
+        <v>1</v>
+      </c>
+      <c r="G893" s="10" t="s">
+        <v>2000</v>
       </c>
     </row>
   </sheetData>

--- a/config_12.15/permission_server_config.xlsx
+++ b/config_12.15/permission_server_config.xlsx
@@ -10126,7 +10126,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A425" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C443" sqref="C443"/>
+      <selection pane="bottomLeft" activeCell="A439" sqref="A439:C439"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -26221,7 +26221,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C873" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B893" sqref="B893"/>
+      <selection pane="bottomRight" activeCell="E889" sqref="E889"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -46740,7 +46740,7 @@
         <v>1947</v>
       </c>
       <c r="E889" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F889" s="8">
         <v>1</v>

--- a/config_12.15/permission_server_config.xlsx
+++ b/config_12.15/permission_server_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -7705,10 +7705,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>actp_own_task_p_task_fish_daily_cps</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>捕鱼每日任务（V7-V10）（CPS）</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -9213,35 +9209,39 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
+    <t>actp_own_task_p_task_fish_daily_cpl</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日任务-捕鱼官方</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日任务-捕鱼CPL</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_official</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>是官方玩家才可游戏</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>cjj_cpl</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>是冲金鸡CPL玩家</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
     <t>actp_own_task_p_task_fish_daily_official</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>actp_own_task_p_task_fish_daily_cpl</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>每日任务-捕鱼官方</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>每日任务-捕鱼CPL</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_official</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>是官方玩家才可游戏</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>cjj_cpl</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>是冲金鸡CPL玩家</t>
+    <t>actp_own_task_p_task_fish_daily_cps</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -11261,7 +11261,7 @@
         <v>133</v>
       </c>
       <c r="B70" s="53" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="C70" s="9"/>
       <c r="D70" s="9"/>
@@ -11279,7 +11279,7 @@
         <v>134</v>
       </c>
       <c r="B71" s="53" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
@@ -11297,7 +11297,7 @@
         <v>135</v>
       </c>
       <c r="B72" s="53" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="C72" s="9"/>
       <c r="D72" s="9"/>
@@ -11315,7 +11315,7 @@
         <v>136</v>
       </c>
       <c r="B73" s="53" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="C73" s="9"/>
       <c r="D73" s="9"/>
@@ -11333,7 +11333,7 @@
         <v>137</v>
       </c>
       <c r="B74" s="53" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="C74" s="57">
         <v>22</v>
@@ -11347,7 +11347,7 @@
         <v>138</v>
       </c>
       <c r="B75" s="53" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="C75" s="57">
         <v>22</v>
@@ -11362,7 +11362,7 @@
         <v>139</v>
       </c>
       <c r="B76" s="53" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="C76" s="57">
         <v>22</v>
@@ -11377,7 +11377,7 @@
         <v>140</v>
       </c>
       <c r="B77" s="53" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="C77" s="57">
         <v>23</v>
@@ -11392,7 +11392,7 @@
         <v>141</v>
       </c>
       <c r="B78" s="53" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="C78" s="9">
         <v>23</v>
@@ -11407,7 +11407,7 @@
         <v>142</v>
       </c>
       <c r="B79" s="53" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="C79" s="9">
         <v>24</v>
@@ -11422,7 +11422,7 @@
         <v>143</v>
       </c>
       <c r="B80" s="53" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="C80" s="9">
         <v>25</v>
@@ -11437,7 +11437,7 @@
         <v>144</v>
       </c>
       <c r="B81" s="53" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="C81" s="9">
         <v>26</v>
@@ -11452,7 +11452,7 @@
         <v>145</v>
       </c>
       <c r="B82" s="53" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="C82" s="9">
         <v>26</v>
@@ -12432,7 +12432,7 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="34" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="B182" s="10" t="s">
         <v>293</v>
@@ -12647,7 +12647,7 @@
     </row>
     <row r="202" spans="1:10" s="65" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A202" s="64" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="B202" s="64" t="s">
         <v>332</v>
@@ -14001,7 +14001,7 @@
         <v>1391</v>
       </c>
       <c r="B353" s="27" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="C353" s="3">
         <v>226</v>
@@ -14064,10 +14064,10 @@
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A359" s="27" t="s">
+        <v>1857</v>
+      </c>
+      <c r="B359" s="27" t="s">
         <v>1858</v>
-      </c>
-      <c r="B359" s="27" t="s">
-        <v>1859</v>
       </c>
       <c r="C359" s="3">
         <v>8</v>
@@ -14075,10 +14075,10 @@
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A360" s="27" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="B360" s="27" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="C360" s="3">
         <v>343</v>
@@ -14097,10 +14097,10 @@
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A364" s="27" t="s">
+        <v>1818</v>
+      </c>
+      <c r="B364" s="34" t="s">
         <v>1819</v>
-      </c>
-      <c r="B364" s="34" t="s">
-        <v>1820</v>
       </c>
       <c r="C364" s="3">
         <v>332</v>
@@ -14111,7 +14111,7 @@
         <v>1473</v>
       </c>
       <c r="B365" s="34" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="C365" s="3">
         <v>242</v>
@@ -14133,7 +14133,7 @@
         <v>1469</v>
       </c>
       <c r="B367" s="27" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="C367" s="3">
         <v>244</v>
@@ -14144,7 +14144,7 @@
         <v>1507</v>
       </c>
       <c r="B370" s="27" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="C370" s="3">
         <v>248</v>
@@ -14152,7 +14152,7 @@
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A372" s="27" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="B372" s="27" t="s">
         <v>1531</v>
@@ -14218,10 +14218,10 @@
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A383" s="27" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="B383" s="27" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="C383" s="3">
         <v>319</v>
@@ -14229,10 +14229,10 @@
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A385" s="27" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="B385" s="27" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="C385" s="3">
         <v>326</v>
@@ -14240,10 +14240,10 @@
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A387" s="27" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="B387" s="27" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="C387" s="3">
         <v>327</v>
@@ -14251,10 +14251,10 @@
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A389" s="27" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="C389" s="3">
         <v>328</v>
@@ -14262,10 +14262,10 @@
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A391" s="27" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="B391" s="27" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="C391" s="3">
         <v>319</v>
@@ -14273,10 +14273,10 @@
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A393" s="34" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="B393" s="34" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="C393" s="8">
         <v>127</v>
@@ -14284,10 +14284,10 @@
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A394" s="34" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="B394" s="34" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="C394" s="8">
         <v>128</v>
@@ -14295,10 +14295,10 @@
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A395" s="34" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="B395" s="34" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="C395" s="8">
         <v>129</v>
@@ -14306,10 +14306,10 @@
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A396" s="34" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="B396" s="34" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="C396" s="8">
         <v>130</v>
@@ -14317,10 +14317,10 @@
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A397" s="34" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="B397" s="34" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="C397" s="8">
         <v>131</v>
@@ -14328,10 +14328,10 @@
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A398" s="34" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="B398" s="34" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="C398" s="8">
         <v>132</v>
@@ -14339,10 +14339,10 @@
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A399" s="34" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="B399" s="34" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="C399" s="8">
         <v>133</v>
@@ -14350,10 +14350,10 @@
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A400" s="34" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="B400" s="34" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="C400" s="8">
         <v>134</v>
@@ -14361,10 +14361,10 @@
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A401" s="34" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="B401" s="34" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="C401" s="8">
         <v>135</v>
@@ -14372,10 +14372,10 @@
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A403" s="27" t="s">
+        <v>1826</v>
+      </c>
+      <c r="B403" s="27" t="s">
         <v>1827</v>
-      </c>
-      <c r="B403" s="27" t="s">
-        <v>1828</v>
       </c>
       <c r="C403" s="3">
         <v>333</v>
@@ -14383,10 +14383,10 @@
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A404" s="27" t="s">
+        <v>1828</v>
+      </c>
+      <c r="B404" s="27" t="s">
         <v>1829</v>
-      </c>
-      <c r="B404" s="27" t="s">
-        <v>1830</v>
       </c>
       <c r="C404" s="3">
         <v>333</v>
@@ -14394,10 +14394,10 @@
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A405" s="27" t="s">
+        <v>1830</v>
+      </c>
+      <c r="B405" s="27" t="s">
         <v>1831</v>
-      </c>
-      <c r="B405" s="27" t="s">
-        <v>1832</v>
       </c>
       <c r="C405" s="3">
         <v>333</v>
@@ -14405,10 +14405,10 @@
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A406" s="27" t="s">
+        <v>1832</v>
+      </c>
+      <c r="B406" s="27" t="s">
         <v>1833</v>
-      </c>
-      <c r="B406" s="27" t="s">
-        <v>1834</v>
       </c>
       <c r="C406" s="3">
         <v>333</v>
@@ -14416,10 +14416,10 @@
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A407" s="27" t="s">
+        <v>1834</v>
+      </c>
+      <c r="B407" s="27" t="s">
         <v>1835</v>
-      </c>
-      <c r="B407" s="27" t="s">
-        <v>1836</v>
       </c>
       <c r="C407" s="3">
         <v>333</v>
@@ -14427,10 +14427,10 @@
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A409" s="27" t="s">
+        <v>1841</v>
+      </c>
+      <c r="B409" s="27" t="s">
         <v>1842</v>
-      </c>
-      <c r="B409" s="27" t="s">
-        <v>1843</v>
       </c>
       <c r="C409" s="3">
         <v>91</v>
@@ -14438,10 +14438,10 @@
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A411" s="27" t="s">
+        <v>1886</v>
+      </c>
+      <c r="B411" s="27" t="s">
         <v>1887</v>
-      </c>
-      <c r="B411" s="27" t="s">
-        <v>1888</v>
       </c>
       <c r="C411" s="3">
         <v>339</v>
@@ -14449,10 +14449,10 @@
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A413" s="3" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B413" s="3" t="s">
         <v>1893</v>
-      </c>
-      <c r="B413" s="3" t="s">
-        <v>1894</v>
       </c>
       <c r="C413" s="3">
         <v>326</v>
@@ -14460,46 +14460,46 @@
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A415" s="34" t="s">
+        <v>1894</v>
+      </c>
+      <c r="B415" s="10" t="s">
         <v>1895</v>
-      </c>
-      <c r="B415" s="10" t="s">
-        <v>1896</v>
       </c>
       <c r="C415" s="9"/>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A416" s="18" t="s">
+        <v>1896</v>
+      </c>
+      <c r="B416" s="10" t="s">
         <v>1897</v>
-      </c>
-      <c r="B416" s="10" t="s">
-        <v>1898</v>
       </c>
       <c r="C416" s="9"/>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A417" s="18" t="s">
+        <v>1898</v>
+      </c>
+      <c r="B417" s="10" t="s">
         <v>1899</v>
-      </c>
-      <c r="B417" s="10" t="s">
-        <v>1900</v>
       </c>
       <c r="C417" s="9"/>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A418" s="18" t="s">
+        <v>1900</v>
+      </c>
+      <c r="B418" s="10" t="s">
         <v>1901</v>
-      </c>
-      <c r="B418" s="10" t="s">
-        <v>1902</v>
       </c>
       <c r="C418" s="9"/>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A419" s="18" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B419" s="10" t="s">
         <v>1903</v>
-      </c>
-      <c r="B419" s="10" t="s">
-        <v>1904</v>
       </c>
       <c r="C419" s="57">
         <v>22</v>
@@ -14507,10 +14507,10 @@
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A420" s="18" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B420" s="10" t="s">
         <v>1905</v>
-      </c>
-      <c r="B420" s="10" t="s">
-        <v>1906</v>
       </c>
       <c r="C420" s="57">
         <v>22</v>
@@ -14518,10 +14518,10 @@
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A421" s="18" t="s">
+        <v>1906</v>
+      </c>
+      <c r="B421" s="10" t="s">
         <v>1907</v>
-      </c>
-      <c r="B421" s="10" t="s">
-        <v>1908</v>
       </c>
       <c r="C421" s="57">
         <v>22</v>
@@ -14529,10 +14529,10 @@
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A422" s="18" t="s">
+        <v>1908</v>
+      </c>
+      <c r="B422" s="10" t="s">
         <v>1909</v>
-      </c>
-      <c r="B422" s="10" t="s">
-        <v>1910</v>
       </c>
       <c r="C422" s="57">
         <v>23</v>
@@ -14540,10 +14540,10 @@
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A423" s="18" t="s">
+        <v>1910</v>
+      </c>
+      <c r="B423" s="10" t="s">
         <v>1911</v>
-      </c>
-      <c r="B423" s="10" t="s">
-        <v>1912</v>
       </c>
       <c r="C423" s="9">
         <v>23</v>
@@ -14551,10 +14551,10 @@
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A424" s="18" t="s">
+        <v>1912</v>
+      </c>
+      <c r="B424" s="10" t="s">
         <v>1913</v>
-      </c>
-      <c r="B424" s="10" t="s">
-        <v>1914</v>
       </c>
       <c r="C424" s="9">
         <v>24</v>
@@ -14562,10 +14562,10 @@
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A425" s="18" t="s">
+        <v>1914</v>
+      </c>
+      <c r="B425" s="10" t="s">
         <v>1915</v>
-      </c>
-      <c r="B425" s="10" t="s">
-        <v>1916</v>
       </c>
       <c r="C425" s="9">
         <v>25</v>
@@ -14573,10 +14573,10 @@
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A426" s="18" t="s">
+        <v>1916</v>
+      </c>
+      <c r="B426" s="10" t="s">
         <v>1917</v>
-      </c>
-      <c r="B426" s="10" t="s">
-        <v>1918</v>
       </c>
       <c r="C426" s="9">
         <v>26</v>
@@ -14584,10 +14584,10 @@
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A427" s="18" t="s">
+        <v>1918</v>
+      </c>
+      <c r="B427" s="10" t="s">
         <v>1919</v>
-      </c>
-      <c r="B427" s="10" t="s">
-        <v>1920</v>
       </c>
       <c r="C427" s="9">
         <v>26</v>
@@ -14595,10 +14595,10 @@
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A429" s="27" t="s">
+        <v>1923</v>
+      </c>
+      <c r="B429" s="27" t="s">
         <v>1924</v>
-      </c>
-      <c r="B429" s="27" t="s">
-        <v>1925</v>
       </c>
       <c r="C429" s="3">
         <v>342</v>
@@ -14606,10 +14606,10 @@
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A431" s="27" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="B431" s="27" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="C431" s="3">
         <v>344</v>
@@ -14617,10 +14617,10 @@
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A433" s="27" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="B433" s="27" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="C433" s="3">
         <v>345</v>
@@ -14628,10 +14628,10 @@
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A435" s="27" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="B435" s="27" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="C435" s="3">
         <v>346</v>
@@ -14639,10 +14639,10 @@
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A437" s="27" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="B437" s="27" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="C437" s="3">
         <v>347</v>
@@ -14650,10 +14650,10 @@
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A439" s="27" t="s">
+        <v>1977</v>
+      </c>
+      <c r="B439" s="27" t="s">
         <v>1978</v>
-      </c>
-      <c r="B439" s="27" t="s">
-        <v>1979</v>
       </c>
       <c r="C439" s="3">
         <v>348</v>
@@ -14671,11 +14671,11 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:O338"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D320" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="G323" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D338" sqref="D338"/>
+      <selection pane="bottomRight" activeCell="J338" sqref="J338"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -14857,7 +14857,7 @@
         <v>1513</v>
       </c>
       <c r="N4" s="34" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="O4" s="17"/>
     </row>
@@ -15013,7 +15013,7 @@
         <v>469</v>
       </c>
       <c r="M8" s="38" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="N8" s="38" t="s">
         <v>1180</v>
@@ -20725,7 +20725,7 @@
         <v>0</v>
       </c>
       <c r="C176" s="10" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="D176" s="16" t="s">
         <v>774</v>
@@ -21272,7 +21272,7 @@
         <v>0</v>
       </c>
       <c r="C192" s="44" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="D192" s="44" t="s">
         <v>803</v>
@@ -24331,7 +24331,7 @@
         <v>1</v>
       </c>
       <c r="C284" s="16" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="D284" s="17" t="s">
         <v>1631</v>
@@ -24524,7 +24524,7 @@
         <v>1605542400</v>
       </c>
       <c r="L289" s="78" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="290" spans="1:12" s="80" customFormat="1" x14ac:dyDescent="0.2">
@@ -24558,7 +24558,7 @@
         <v>1605542400</v>
       </c>
       <c r="L290" s="78" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="291" spans="1:12" s="80" customFormat="1" x14ac:dyDescent="0.2">
@@ -24592,7 +24592,7 @@
         <v>1605542400</v>
       </c>
       <c r="L291" s="78" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="292" spans="1:12" s="80" customFormat="1" x14ac:dyDescent="0.2">
@@ -24603,10 +24603,10 @@
         <v>1</v>
       </c>
       <c r="C292" s="79" t="s">
+        <v>1875</v>
+      </c>
+      <c r="D292" s="79" t="s">
         <v>1876</v>
-      </c>
-      <c r="D292" s="79" t="s">
-        <v>1877</v>
       </c>
       <c r="E292" s="78"/>
       <c r="F292" s="78"/>
@@ -24626,7 +24626,7 @@
         <v>1605542400</v>
       </c>
       <c r="L292" s="109" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.2">
@@ -24861,7 +24861,7 @@
         <v>1</v>
       </c>
       <c r="C300" s="30" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="D300" s="16" t="s">
         <v>1683</v>
@@ -24960,7 +24960,7 @@
         <v>1688</v>
       </c>
       <c r="D303" s="16" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="G303" s="17">
         <v>308</v>
@@ -24989,10 +24989,10 @@
         <v>1</v>
       </c>
       <c r="C304" s="30" t="s">
-        <v>1689</v>
+        <v>1987</v>
       </c>
       <c r="D304" s="30" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="G304" s="26">
         <v>309</v>
@@ -25004,7 +25004,7 @@
         <v>1</v>
       </c>
       <c r="J304" s="16" t="s">
-        <v>1142</v>
+        <v>1229</v>
       </c>
       <c r="K304" s="17">
         <v>1598889600</v>
@@ -25021,10 +25021,10 @@
         <v>1</v>
       </c>
       <c r="C305" s="30" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="D305" s="30" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="G305" s="26">
         <v>310</v>
@@ -25053,7 +25053,7 @@
         <v>1</v>
       </c>
       <c r="C306" s="30" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="D306" s="16" t="s">
         <v>1681</v>
@@ -25085,7 +25085,7 @@
         <v>1</v>
       </c>
       <c r="C307" s="30" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="D307" s="16" t="s">
         <v>1602</v>
@@ -25117,7 +25117,7 @@
         <v>1</v>
       </c>
       <c r="C308" s="30" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="D308" s="16" t="s">
         <v>1603</v>
@@ -25149,7 +25149,7 @@
         <v>1</v>
       </c>
       <c r="C309" s="30" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="D309" s="16" t="s">
         <v>1604</v>
@@ -25181,10 +25181,10 @@
         <v>1</v>
       </c>
       <c r="C310" s="30" t="s">
+        <v>1702</v>
+      </c>
+      <c r="D310" s="30" t="s">
         <v>1703</v>
-      </c>
-      <c r="D310" s="30" t="s">
-        <v>1704</v>
       </c>
       <c r="G310" s="26">
         <v>315</v>
@@ -25213,10 +25213,10 @@
         <v>1</v>
       </c>
       <c r="C311" s="30" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="D311" s="30" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="G311" s="26">
         <v>316</v>
@@ -25245,10 +25245,10 @@
         <v>1</v>
       </c>
       <c r="C312" s="30" t="s">
+        <v>1706</v>
+      </c>
+      <c r="D312" s="30" t="s">
         <v>1707</v>
-      </c>
-      <c r="D312" s="30" t="s">
-        <v>1708</v>
       </c>
       <c r="G312" s="26">
         <v>317</v>
@@ -25277,10 +25277,10 @@
         <v>1</v>
       </c>
       <c r="C313" s="30" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="D313" s="30" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="G313" s="26">
         <v>318</v>
@@ -25309,10 +25309,10 @@
         <v>1</v>
       </c>
       <c r="C314" s="30" t="s">
+        <v>1712</v>
+      </c>
+      <c r="D314" s="30" t="s">
         <v>1713</v>
-      </c>
-      <c r="D314" s="30" t="s">
-        <v>1714</v>
       </c>
       <c r="G314" s="26">
         <v>319</v>
@@ -25341,10 +25341,10 @@
         <v>1</v>
       </c>
       <c r="C315" s="30" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="D315" s="30" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="G315" s="26">
         <v>320</v>
@@ -25373,10 +25373,10 @@
         <v>1</v>
       </c>
       <c r="C316" s="16" t="s">
+        <v>1733</v>
+      </c>
+      <c r="D316" s="16" t="s">
         <v>1734</v>
-      </c>
-      <c r="D316" s="16" t="s">
-        <v>1735</v>
       </c>
       <c r="E316" s="17"/>
       <c r="F316" s="17"/>
@@ -25396,7 +25396,7 @@
         <v>1600731000</v>
       </c>
       <c r="L316" s="16" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="317" spans="1:12" x14ac:dyDescent="0.2">
@@ -25407,10 +25407,10 @@
         <v>1</v>
       </c>
       <c r="C317" s="30" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="D317" s="30" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="G317" s="26">
         <v>322</v>
@@ -25428,7 +25428,7 @@
         <v>1601335800</v>
       </c>
       <c r="L317" s="30" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="318" spans="1:12" x14ac:dyDescent="0.2">
@@ -25439,10 +25439,10 @@
         <v>1</v>
       </c>
       <c r="C318" s="30" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="D318" s="30" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="G318" s="26">
         <v>323</v>
@@ -25460,7 +25460,7 @@
         <v>1601335800</v>
       </c>
       <c r="L318" s="30" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="319" spans="1:12" x14ac:dyDescent="0.2">
@@ -25471,10 +25471,10 @@
         <v>1</v>
       </c>
       <c r="C319" s="26" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="D319" s="26" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="G319" s="26">
         <v>323</v>
@@ -25492,7 +25492,7 @@
         <v>1601335800</v>
       </c>
       <c r="L319" s="30" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="320" spans="1:12" x14ac:dyDescent="0.2">
@@ -25503,10 +25503,10 @@
         <v>1</v>
       </c>
       <c r="C320" s="30" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="D320" s="16" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="G320" s="26">
         <v>324</v>
@@ -25535,10 +25535,10 @@
         <v>1</v>
       </c>
       <c r="C321" s="30" t="s">
+        <v>1747</v>
+      </c>
+      <c r="D321" s="26" t="s">
         <v>1748</v>
-      </c>
-      <c r="D321" s="26" t="s">
-        <v>1749</v>
       </c>
       <c r="G321" s="26">
         <v>325</v>
@@ -25556,7 +25556,7 @@
         <v>1601335800</v>
       </c>
       <c r="L321" s="30" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="322" spans="1:12" x14ac:dyDescent="0.2">
@@ -25567,10 +25567,10 @@
         <v>1</v>
       </c>
       <c r="C322" s="30" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="D322" s="30" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="G322" s="26">
         <v>328</v>
@@ -25588,7 +25588,7 @@
         <v>1603152000</v>
       </c>
       <c r="L322" s="30" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="323" spans="1:12" x14ac:dyDescent="0.2">
@@ -25599,10 +25599,10 @@
         <v>1</v>
       </c>
       <c r="C323" s="30" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="D323" s="30" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="G323" s="26">
         <v>329</v>
@@ -25620,7 +25620,7 @@
         <v>1603152000</v>
       </c>
       <c r="L323" s="30" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="324" spans="1:12" x14ac:dyDescent="0.2">
@@ -25631,10 +25631,10 @@
         <v>1</v>
       </c>
       <c r="C324" s="30" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="D324" s="30" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="G324" s="26">
         <v>326</v>
@@ -25663,10 +25663,10 @@
         <v>1</v>
       </c>
       <c r="C325" s="30" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="D325" s="30" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="G325" s="26">
         <v>327</v>
@@ -25695,10 +25695,10 @@
         <v>1</v>
       </c>
       <c r="C326" s="30" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="D326" s="30" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="G326" s="26">
         <v>330</v>
@@ -25716,7 +25716,7 @@
         <v>1603756800</v>
       </c>
       <c r="L326" s="30" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="327" spans="1:12" x14ac:dyDescent="0.2">
@@ -25727,10 +25727,10 @@
         <v>1</v>
       </c>
       <c r="C327" s="30" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="D327" s="30" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="G327" s="26">
         <v>331</v>
@@ -25748,7 +25748,7 @@
         <v>1603756800</v>
       </c>
       <c r="L327" s="30" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="328" spans="1:12" x14ac:dyDescent="0.2">
@@ -25759,10 +25759,10 @@
         <v>1</v>
       </c>
       <c r="C328" s="26" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="D328" s="26" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="G328" s="26">
         <v>334</v>
@@ -25791,10 +25791,10 @@
         <v>1</v>
       </c>
       <c r="C329" s="26" t="s">
+        <v>1844</v>
+      </c>
+      <c r="D329" s="26" t="s">
         <v>1845</v>
-      </c>
-      <c r="D329" s="26" t="s">
-        <v>1846</v>
       </c>
       <c r="G329" s="26">
         <v>334</v>
@@ -25823,10 +25823,10 @@
         <v>1</v>
       </c>
       <c r="C330" s="26" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="D330" s="26" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="G330" s="26">
         <v>334</v>
@@ -25838,7 +25838,7 @@
         <v>1</v>
       </c>
       <c r="J330" s="30" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="K330" s="26">
         <v>0</v>
@@ -25855,10 +25855,10 @@
         <v>1</v>
       </c>
       <c r="C331" s="26" t="s">
+        <v>1847</v>
+      </c>
+      <c r="D331" s="26" t="s">
         <v>1848</v>
-      </c>
-      <c r="D331" s="26" t="s">
-        <v>1849</v>
       </c>
       <c r="G331" s="26">
         <v>335</v>
@@ -25887,10 +25887,10 @@
         <v>1</v>
       </c>
       <c r="C332" s="101" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="D332" s="101" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="E332" s="100"/>
       <c r="F332" s="100"/>
@@ -25910,7 +25910,7 @@
         <v>1604332800</v>
       </c>
       <c r="L332" s="101" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="333" spans="1:12" x14ac:dyDescent="0.2">
@@ -25921,10 +25921,10 @@
         <v>1</v>
       </c>
       <c r="C333" s="30" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="D333" s="26" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="G333" s="26">
         <v>337</v>
@@ -25936,7 +25936,7 @@
         <v>1</v>
       </c>
       <c r="J333" s="26" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="K333" s="26">
         <v>0</v>
@@ -25953,10 +25953,10 @@
         <v>1</v>
       </c>
       <c r="C334" s="16" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="D334" s="16" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="E334" s="17"/>
       <c r="F334" s="17"/>
@@ -25987,10 +25987,10 @@
         <v>1</v>
       </c>
       <c r="C335" s="16" t="s">
+        <v>1925</v>
+      </c>
+      <c r="D335" s="16" t="s">
         <v>1926</v>
-      </c>
-      <c r="D335" s="16" t="s">
-        <v>1927</v>
       </c>
       <c r="E335" s="17"/>
       <c r="F335" s="17"/>
@@ -26010,7 +26010,7 @@
         <v>1606176000</v>
       </c>
       <c r="L335" s="16" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="336" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -26021,10 +26021,10 @@
         <v>1</v>
       </c>
       <c r="C336" s="16" t="s">
+        <v>1928</v>
+      </c>
+      <c r="D336" s="16" t="s">
         <v>1929</v>
-      </c>
-      <c r="D336" s="16" t="s">
-        <v>1930</v>
       </c>
       <c r="E336" s="17"/>
       <c r="F336" s="17"/>
@@ -26044,7 +26044,7 @@
         <v>1606176000</v>
       </c>
       <c r="L336" s="16" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="337" spans="1:12" x14ac:dyDescent="0.2">
@@ -26055,10 +26055,10 @@
         <v>1</v>
       </c>
       <c r="C337" s="30" t="s">
+        <v>1986</v>
+      </c>
+      <c r="D337" s="30" t="s">
         <v>1980</v>
-      </c>
-      <c r="D337" s="30" t="s">
-        <v>1982</v>
       </c>
       <c r="G337" s="17">
         <v>349</v>
@@ -26070,7 +26070,7 @@
         <v>1</v>
       </c>
       <c r="J337" s="16" t="s">
-        <v>1142</v>
+        <v>1229</v>
       </c>
       <c r="K337" s="17">
         <v>1598889600</v>
@@ -26087,10 +26087,10 @@
         <v>1</v>
       </c>
       <c r="C338" s="30" t="s">
+        <v>1979</v>
+      </c>
+      <c r="D338" s="30" t="s">
         <v>1981</v>
-      </c>
-      <c r="D338" s="30" t="s">
-        <v>1983</v>
       </c>
       <c r="E338" s="17"/>
       <c r="F338" s="17"/>
@@ -26104,7 +26104,7 @@
         <v>1</v>
       </c>
       <c r="J338" s="16" t="s">
-        <v>1142</v>
+        <v>1229</v>
       </c>
       <c r="K338" s="17">
         <v>1598889600</v>
@@ -26126,11 +26126,11 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:I884"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C856" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A883" sqref="A883:XFD884"/>
+      <selection pane="bottomRight" activeCell="D878" sqref="D878"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -26714,7 +26714,7 @@
         <v>20</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>1052</v>
@@ -28327,7 +28327,7 @@
         <v>865</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="E94" s="8">
         <v>2</v>
@@ -29615,7 +29615,7 @@
         <v>1045</v>
       </c>
       <c r="D150" s="113" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="E150" s="112">
         <v>2</v>
@@ -29624,7 +29624,7 @@
         <v>4</v>
       </c>
       <c r="G150" s="113" t="s">
-        <v>1987</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="151" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -30282,7 +30282,7 @@
         <v>1045</v>
       </c>
       <c r="D179" s="94" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="E179" s="14">
         <v>2</v>
@@ -30305,7 +30305,7 @@
         <v>1045</v>
       </c>
       <c r="D180" s="94" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="E180" s="14">
         <v>2</v>
@@ -30314,7 +30314,7 @@
         <v>5</v>
       </c>
       <c r="G180" s="15" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="181" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -30696,7 +30696,7 @@
         <v>1045</v>
       </c>
       <c r="D197" s="105" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="E197" s="103">
         <v>2</v>
@@ -30719,7 +30719,7 @@
         <v>1045</v>
       </c>
       <c r="D198" s="105" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="E198" s="103">
         <v>2</v>
@@ -30728,7 +30728,7 @@
         <v>5</v>
       </c>
       <c r="G198" s="104" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="199" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -39958,7 +39958,7 @@
         <v>1168</v>
       </c>
       <c r="D599" s="10" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="E599" s="8">
         <v>5</v>
@@ -40004,7 +40004,7 @@
         <v>1168</v>
       </c>
       <c r="D601" s="10" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="E601" s="8">
         <v>5</v>
@@ -40027,7 +40027,7 @@
         <v>1168</v>
       </c>
       <c r="D602" s="10" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="E602" s="14">
         <v>2</v>
@@ -40050,7 +40050,7 @@
         <v>1168</v>
       </c>
       <c r="D603" s="15" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="E603" s="14">
         <v>2</v>
@@ -40096,7 +40096,7 @@
         <v>1168</v>
       </c>
       <c r="D605" s="15" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="E605" s="14">
         <v>5</v>
@@ -40142,7 +40142,7 @@
         <v>1168</v>
       </c>
       <c r="D607" s="15" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="E607" s="14">
         <v>5</v>
@@ -40165,7 +40165,7 @@
         <v>1168</v>
       </c>
       <c r="D608" s="15" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="E608" s="14">
         <v>2</v>
@@ -40188,7 +40188,7 @@
         <v>1168</v>
       </c>
       <c r="D609" s="15" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="E609" s="14">
         <v>2</v>
@@ -40234,7 +40234,7 @@
         <v>1168</v>
       </c>
       <c r="D611" s="15" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="E611" s="8">
         <v>5</v>
@@ -40280,7 +40280,7 @@
         <v>1168</v>
       </c>
       <c r="D613" s="15" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="E613" s="8">
         <v>5</v>
@@ -40303,7 +40303,7 @@
         <v>1168</v>
       </c>
       <c r="D614" s="15" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="E614" s="14">
         <v>2</v>
@@ -40326,7 +40326,7 @@
         <v>1168</v>
       </c>
       <c r="D615" s="15" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="E615" s="14">
         <v>2</v>
@@ -40372,7 +40372,7 @@
         <v>1168</v>
       </c>
       <c r="D617" s="15" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="E617" s="8">
         <v>5</v>
@@ -40418,7 +40418,7 @@
         <v>1168</v>
       </c>
       <c r="D619" s="15" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="E619" s="8">
         <v>5</v>
@@ -40441,7 +40441,7 @@
         <v>1168</v>
       </c>
       <c r="D620" s="15" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="E620" s="14">
         <v>2</v>
@@ -40464,7 +40464,7 @@
         <v>1168</v>
       </c>
       <c r="D621" s="15" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="E621" s="14">
         <v>2</v>
@@ -40510,7 +40510,7 @@
         <v>1168</v>
       </c>
       <c r="D623" s="15" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="E623" s="8">
         <v>5</v>
@@ -40556,7 +40556,7 @@
         <v>1168</v>
       </c>
       <c r="D625" s="15" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="E625" s="8">
         <v>5</v>
@@ -40579,7 +40579,7 @@
         <v>1168</v>
       </c>
       <c r="D626" s="15" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="E626" s="14">
         <v>2</v>
@@ -40602,7 +40602,7 @@
         <v>1168</v>
       </c>
       <c r="D627" s="15" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="E627" s="14">
         <v>2</v>
@@ -40648,7 +40648,7 @@
         <v>1168</v>
       </c>
       <c r="D629" s="15" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="E629" s="8">
         <v>5</v>
@@ -40694,7 +40694,7 @@
         <v>1168</v>
       </c>
       <c r="D631" s="15" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="E631" s="8">
         <v>5</v>
@@ -40717,7 +40717,7 @@
         <v>1168</v>
       </c>
       <c r="D632" s="15" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="E632" s="14">
         <v>2</v>
@@ -40740,7 +40740,7 @@
         <v>1168</v>
       </c>
       <c r="D633" s="15" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="E633" s="14">
         <v>2</v>
@@ -41284,7 +41284,7 @@
         <v>1</v>
       </c>
       <c r="G656" s="53" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="657" spans="1:7" x14ac:dyDescent="0.2">
@@ -41735,7 +41735,7 @@
         <v>1168</v>
       </c>
       <c r="D676" s="10" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="E676" s="8">
         <v>2</v>
@@ -43515,7 +43515,7 @@
         <v>1</v>
       </c>
       <c r="G753" s="15" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="754" spans="1:7" x14ac:dyDescent="0.2">
@@ -43584,7 +43584,7 @@
         <v>1</v>
       </c>
       <c r="G756" s="15" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="757" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -43653,7 +43653,7 @@
         <v>1</v>
       </c>
       <c r="G759" s="15" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="760" spans="1:7" x14ac:dyDescent="0.2">
@@ -43667,7 +43667,7 @@
         <v>1065</v>
       </c>
       <c r="D760" s="10" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="E760" s="8">
         <v>2</v>
@@ -43791,7 +43791,7 @@
         <v>1</v>
       </c>
       <c r="G765" s="15" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="766" spans="1:7" x14ac:dyDescent="0.2">
@@ -43837,7 +43837,7 @@
         <v>1</v>
       </c>
       <c r="G767" s="10" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="768" spans="1:7" x14ac:dyDescent="0.2">
@@ -43883,7 +43883,7 @@
         <v>2</v>
       </c>
       <c r="G769" s="10" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="770" spans="1:7" x14ac:dyDescent="0.2">
@@ -43929,7 +43929,7 @@
         <v>3</v>
       </c>
       <c r="G771" s="10" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="772" spans="1:7" x14ac:dyDescent="0.2">
@@ -43998,7 +43998,7 @@
         <v>1</v>
       </c>
       <c r="G774" s="10" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="775" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -44021,7 +44021,7 @@
         <v>1</v>
       </c>
       <c r="G775" s="15" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="776" spans="1:7" x14ac:dyDescent="0.2">
@@ -44090,7 +44090,7 @@
         <v>1</v>
       </c>
       <c r="G778" s="10" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="779" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -44113,7 +44113,7 @@
         <v>1</v>
       </c>
       <c r="G779" s="15" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="780" spans="1:7" x14ac:dyDescent="0.2">
@@ -44182,7 +44182,7 @@
         <v>1</v>
       </c>
       <c r="G782" s="15" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="783" spans="1:7" x14ac:dyDescent="0.2">
@@ -44205,7 +44205,7 @@
         <v>1</v>
       </c>
       <c r="G783" s="10" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="784" spans="1:7" x14ac:dyDescent="0.2">
@@ -44228,7 +44228,7 @@
         <v>1</v>
       </c>
       <c r="G784" s="10" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="785" spans="1:7" x14ac:dyDescent="0.2">
@@ -44265,7 +44265,7 @@
         <v>1065</v>
       </c>
       <c r="D786" s="10" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="E786" s="8">
         <v>2</v>
@@ -44481,7 +44481,7 @@
         <v>1</v>
       </c>
       <c r="G795" s="15" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="796" spans="1:7" x14ac:dyDescent="0.2">
@@ -44573,7 +44573,7 @@
         <v>1</v>
       </c>
       <c r="G799" s="15" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="800" spans="1:7" x14ac:dyDescent="0.2">
@@ -44642,7 +44642,7 @@
         <v>1</v>
       </c>
       <c r="G802" s="15" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="803" spans="1:7" x14ac:dyDescent="0.2">
@@ -44688,7 +44688,7 @@
         <v>1</v>
       </c>
       <c r="G804" s="10" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="805" spans="1:7" x14ac:dyDescent="0.2">
@@ -44711,7 +44711,7 @@
         <v>1</v>
       </c>
       <c r="G805" s="53" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="806" spans="1:7" x14ac:dyDescent="0.2">
@@ -44734,7 +44734,7 @@
         <v>1</v>
       </c>
       <c r="G806" s="10" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="807" spans="1:7" x14ac:dyDescent="0.2">
@@ -44757,7 +44757,7 @@
         <v>1</v>
       </c>
       <c r="G807" s="53" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="808" spans="1:7" x14ac:dyDescent="0.2">
@@ -44780,7 +44780,7 @@
         <v>1</v>
       </c>
       <c r="G808" s="10" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="809" spans="1:7" x14ac:dyDescent="0.2">
@@ -44794,7 +44794,7 @@
         <v>1045</v>
       </c>
       <c r="D809" s="9" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="E809" s="9">
         <v>5</v>
@@ -44803,7 +44803,7 @@
         <v>1</v>
       </c>
       <c r="G809" s="9" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="810" spans="1:7" x14ac:dyDescent="0.2">
@@ -44826,7 +44826,7 @@
         <v>1</v>
       </c>
       <c r="G810" s="53" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="811" spans="1:7" x14ac:dyDescent="0.2">
@@ -44863,7 +44863,7 @@
         <v>1045</v>
       </c>
       <c r="D812" s="10" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="E812" s="9">
         <v>5</v>
@@ -44872,7 +44872,7 @@
         <v>1</v>
       </c>
       <c r="G812" s="53" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="813" spans="1:7" x14ac:dyDescent="0.2">
@@ -45021,19 +45021,19 @@
         <v>324</v>
       </c>
       <c r="C819" s="10" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D819" s="10" t="s">
         <v>1743</v>
       </c>
-      <c r="D819" s="10" t="s">
+      <c r="E819" s="8">
+        <v>2</v>
+      </c>
+      <c r="F819" s="8">
+        <v>1</v>
+      </c>
+      <c r="G819" s="10" t="s">
         <v>1744</v>
-      </c>
-      <c r="E819" s="8">
-        <v>2</v>
-      </c>
-      <c r="F819" s="8">
-        <v>1</v>
-      </c>
-      <c r="G819" s="10" t="s">
-        <v>1745</v>
       </c>
     </row>
     <row r="820" spans="1:7" x14ac:dyDescent="0.2">
@@ -45056,7 +45056,7 @@
         <v>1</v>
       </c>
       <c r="G820" s="10" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="821" spans="1:7" x14ac:dyDescent="0.2">
@@ -45070,7 +45070,7 @@
         <v>865</v>
       </c>
       <c r="D821" s="10" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="E821" s="8">
         <v>2</v>
@@ -45102,7 +45102,7 @@
         <v>2</v>
       </c>
       <c r="G822" s="10" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="823" spans="1:7" x14ac:dyDescent="0.2">
@@ -45148,7 +45148,7 @@
         <v>3</v>
       </c>
       <c r="G824" s="10" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="825" spans="1:7" x14ac:dyDescent="0.2">
@@ -45185,7 +45185,7 @@
         <v>1045</v>
       </c>
       <c r="D826" s="9" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="E826" s="9">
         <v>2</v>
@@ -45194,7 +45194,7 @@
         <v>1</v>
       </c>
       <c r="G826" s="9" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="827" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -45208,7 +45208,7 @@
         <v>1045</v>
       </c>
       <c r="D827" s="15" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="E827" s="14">
         <v>2</v>
@@ -45217,7 +45217,7 @@
         <v>1</v>
       </c>
       <c r="G827" s="15" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="828" spans="1:7" x14ac:dyDescent="0.2">
@@ -45231,16 +45231,16 @@
         <v>1045</v>
       </c>
       <c r="D828" s="10" t="s">
+        <v>1823</v>
+      </c>
+      <c r="E828" s="8">
+        <v>2</v>
+      </c>
+      <c r="F828" s="8">
+        <v>2</v>
+      </c>
+      <c r="G828" s="10" t="s">
         <v>1824</v>
-      </c>
-      <c r="E828" s="8">
-        <v>2</v>
-      </c>
-      <c r="F828" s="8">
-        <v>2</v>
-      </c>
-      <c r="G828" s="10" t="s">
-        <v>1825</v>
       </c>
     </row>
     <row r="829" spans="1:7" x14ac:dyDescent="0.2">
@@ -45254,7 +45254,7 @@
         <v>1045</v>
       </c>
       <c r="D829" s="10" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="E829" s="8">
         <v>2</v>
@@ -45274,10 +45274,10 @@
         <v>328</v>
       </c>
       <c r="C830" s="53" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="D830" s="9" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="E830" s="9">
         <v>5</v>
@@ -45286,7 +45286,7 @@
         <v>1</v>
       </c>
       <c r="G830" s="9" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="831" spans="1:7" x14ac:dyDescent="0.2">
@@ -45300,7 +45300,7 @@
         <v>1045</v>
       </c>
       <c r="D831" s="9" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="E831" s="9">
         <v>5</v>
@@ -45309,7 +45309,7 @@
         <v>1</v>
       </c>
       <c r="G831" s="53" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="832" spans="1:7" x14ac:dyDescent="0.2">
@@ -45323,7 +45323,7 @@
         <v>897</v>
       </c>
       <c r="D832" s="9" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="E832" s="9">
         <v>5</v>
@@ -45332,7 +45332,7 @@
         <v>1</v>
       </c>
       <c r="G832" s="9" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="833" spans="1:9" x14ac:dyDescent="0.2">
@@ -45346,7 +45346,7 @@
         <v>1045</v>
       </c>
       <c r="D833" s="9" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="E833" s="9">
         <v>5</v>
@@ -45355,7 +45355,7 @@
         <v>1</v>
       </c>
       <c r="G833" s="53" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="834" spans="1:9" x14ac:dyDescent="0.2">
@@ -45366,7 +45366,7 @@
         <v>330</v>
       </c>
       <c r="C834" s="53" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="D834" s="9">
         <v>1</v>
@@ -45378,7 +45378,7 @@
         <v>1</v>
       </c>
       <c r="G834" s="53" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="835" spans="1:9" x14ac:dyDescent="0.2">
@@ -45389,7 +45389,7 @@
         <v>330</v>
       </c>
       <c r="C835" s="53" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="D835" s="9">
         <v>3</v>
@@ -45401,7 +45401,7 @@
         <v>1</v>
       </c>
       <c r="G835" s="53" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="836" spans="1:9" x14ac:dyDescent="0.2">
@@ -45415,7 +45415,7 @@
         <v>1065</v>
       </c>
       <c r="D836" s="53" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="E836" s="9">
         <v>5</v>
@@ -45424,7 +45424,7 @@
         <v>1</v>
       </c>
       <c r="G836" s="53" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="837" spans="1:9" x14ac:dyDescent="0.2">
@@ -45438,7 +45438,7 @@
         <v>865</v>
       </c>
       <c r="D837" s="10" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="E837" s="9">
         <v>2</v>
@@ -45447,7 +45447,7 @@
         <v>2</v>
       </c>
       <c r="G837" s="53" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="838" spans="1:9" x14ac:dyDescent="0.2">
@@ -45470,7 +45470,7 @@
         <v>2</v>
       </c>
       <c r="G838" s="9" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="839" spans="1:9" x14ac:dyDescent="0.2">
@@ -45493,7 +45493,7 @@
         <v>3</v>
       </c>
       <c r="G839" s="53" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="840" spans="1:9" x14ac:dyDescent="0.2">
@@ -45507,7 +45507,7 @@
         <v>865</v>
       </c>
       <c r="D840" s="9" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="E840" s="9">
         <v>5</v>
@@ -45516,7 +45516,7 @@
         <v>3</v>
       </c>
       <c r="G840" s="9" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="841" spans="1:9" x14ac:dyDescent="0.2">
@@ -45539,7 +45539,7 @@
         <v>1</v>
       </c>
       <c r="G841" s="53" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="842" spans="1:9" x14ac:dyDescent="0.2">
@@ -45562,7 +45562,7 @@
         <v>1</v>
       </c>
       <c r="G842" s="53" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="843" spans="1:9" x14ac:dyDescent="0.2">
@@ -45585,7 +45585,7 @@
         <v>1</v>
       </c>
       <c r="G843" s="53" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="844" spans="1:9" x14ac:dyDescent="0.2">
@@ -45608,7 +45608,7 @@
         <v>1</v>
       </c>
       <c r="G844" s="53" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="845" spans="1:9" x14ac:dyDescent="0.2">
@@ -45622,7 +45622,7 @@
         <v>1045</v>
       </c>
       <c r="D845" s="9" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="E845" s="9">
         <v>5</v>
@@ -45631,7 +45631,7 @@
         <v>1</v>
       </c>
       <c r="G845" s="53" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="846" spans="1:9" x14ac:dyDescent="0.2">
@@ -45674,7 +45674,7 @@
         <v>1045</v>
       </c>
       <c r="D847" s="9" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="E847" s="9">
         <v>2</v>
@@ -45683,7 +45683,7 @@
         <v>1</v>
       </c>
       <c r="G847" s="9" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="848" spans="1:9" x14ac:dyDescent="0.2">
@@ -45726,7 +45726,7 @@
         <v>1045</v>
       </c>
       <c r="D849" s="9" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="E849" s="9">
         <v>2</v>
@@ -45735,7 +45735,7 @@
         <v>1</v>
       </c>
       <c r="G849" s="9" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="850" spans="1:7" s="98" customFormat="1" x14ac:dyDescent="0.2">
@@ -45746,10 +45746,10 @@
         <v>336</v>
       </c>
       <c r="C850" s="98" t="s">
+        <v>1855</v>
+      </c>
+      <c r="D850" s="99" t="s">
         <v>1856</v>
-      </c>
-      <c r="D850" s="99" t="s">
-        <v>1857</v>
       </c>
       <c r="E850" s="98">
         <v>5</v>
@@ -45758,7 +45758,7 @@
         <v>1</v>
       </c>
       <c r="G850" s="99" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="851" spans="1:7" x14ac:dyDescent="0.2">
@@ -45772,7 +45772,7 @@
         <v>1045</v>
       </c>
       <c r="D851" s="9" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="E851" s="9">
         <v>5</v>
@@ -45781,7 +45781,7 @@
         <v>1</v>
       </c>
       <c r="G851" s="9" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="852" spans="1:7" s="106" customFormat="1" x14ac:dyDescent="0.2">
@@ -45795,16 +45795,16 @@
         <v>1045</v>
       </c>
       <c r="D852" s="107" t="s">
+        <v>1866</v>
+      </c>
+      <c r="E852" s="106">
+        <v>2</v>
+      </c>
+      <c r="F852" s="106">
+        <v>1</v>
+      </c>
+      <c r="G852" s="107" t="s">
         <v>1867</v>
-      </c>
-      <c r="E852" s="106">
-        <v>2</v>
-      </c>
-      <c r="F852" s="106">
-        <v>1</v>
-      </c>
-      <c r="G852" s="107" t="s">
-        <v>1868</v>
       </c>
     </row>
     <row r="853" spans="1:7" s="106" customFormat="1" x14ac:dyDescent="0.2">
@@ -45827,7 +45827,7 @@
         <v>1</v>
       </c>
       <c r="G853" s="107" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="854" spans="1:7" s="106" customFormat="1" x14ac:dyDescent="0.2">
@@ -45850,7 +45850,7 @@
         <v>1</v>
       </c>
       <c r="G854" s="106" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="855" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -45864,7 +45864,7 @@
         <v>1045</v>
       </c>
       <c r="D855" s="14" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="E855" s="14">
         <v>5</v>
@@ -45873,7 +45873,7 @@
         <v>1</v>
       </c>
       <c r="G855" s="14" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="856" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -45884,19 +45884,19 @@
         <v>339</v>
       </c>
       <c r="C856" s="10" t="s">
+        <v>1890</v>
+      </c>
+      <c r="D856" s="10" t="s">
+        <v>1889</v>
+      </c>
+      <c r="E856" s="8">
+        <v>2</v>
+      </c>
+      <c r="F856" s="8">
+        <v>1</v>
+      </c>
+      <c r="G856" s="10" t="s">
         <v>1891</v>
-      </c>
-      <c r="D856" s="10" t="s">
-        <v>1890</v>
-      </c>
-      <c r="E856" s="8">
-        <v>2</v>
-      </c>
-      <c r="F856" s="8">
-        <v>1</v>
-      </c>
-      <c r="G856" s="10" t="s">
-        <v>1892</v>
       </c>
     </row>
     <row r="857" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -45910,7 +45910,7 @@
         <v>1174</v>
       </c>
       <c r="D857" s="10" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="E857" s="8">
         <v>5</v>
@@ -45919,7 +45919,7 @@
         <v>1</v>
       </c>
       <c r="G857" s="10" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="858" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -45933,7 +45933,7 @@
         <v>1174</v>
       </c>
       <c r="D858" s="10" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="E858" s="8">
         <v>2</v>
@@ -45942,7 +45942,7 @@
         <v>1</v>
       </c>
       <c r="G858" s="10" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="859" spans="1:7" s="110" customFormat="1" x14ac:dyDescent="0.2">
@@ -45956,16 +45956,16 @@
         <v>1045</v>
       </c>
       <c r="D859" s="111" t="s">
+        <v>1943</v>
+      </c>
+      <c r="E859" s="110">
+        <v>2</v>
+      </c>
+      <c r="F859" s="110">
+        <v>1</v>
+      </c>
+      <c r="G859" s="111" t="s">
         <v>1944</v>
-      </c>
-      <c r="E859" s="110">
-        <v>2</v>
-      </c>
-      <c r="F859" s="110">
-        <v>1</v>
-      </c>
-      <c r="G859" s="111" t="s">
-        <v>1945</v>
       </c>
     </row>
     <row r="860" spans="1:7" s="110" customFormat="1" x14ac:dyDescent="0.2">
@@ -45988,7 +45988,7 @@
         <v>1</v>
       </c>
       <c r="G860" s="111" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="861" spans="1:7" s="110" customFormat="1" x14ac:dyDescent="0.2">
@@ -46002,7 +46002,7 @@
         <v>1045</v>
       </c>
       <c r="D861" s="111" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="E861" s="110">
         <v>2</v>
@@ -46011,7 +46011,7 @@
         <v>2</v>
       </c>
       <c r="G861" s="111" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="862" spans="1:7" s="110" customFormat="1" x14ac:dyDescent="0.2">
@@ -46034,7 +46034,7 @@
         <v>2</v>
       </c>
       <c r="G862" s="111" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="863" spans="1:7" s="110" customFormat="1" x14ac:dyDescent="0.2">
@@ -46048,7 +46048,7 @@
         <v>1045</v>
       </c>
       <c r="D863" s="111" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="E863" s="110">
         <v>2</v>
@@ -46057,7 +46057,7 @@
         <v>3</v>
       </c>
       <c r="G863" s="111" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="864" spans="1:7" s="110" customFormat="1" x14ac:dyDescent="0.2">
@@ -46080,7 +46080,7 @@
         <v>3</v>
       </c>
       <c r="G864" s="111" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="865" spans="1:7" s="110" customFormat="1" x14ac:dyDescent="0.2">
@@ -46094,7 +46094,7 @@
         <v>1045</v>
       </c>
       <c r="D865" s="110" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="E865" s="110">
         <v>2</v>
@@ -46103,7 +46103,7 @@
         <v>4</v>
       </c>
       <c r="G865" s="111" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="866" spans="1:7" s="110" customFormat="1" x14ac:dyDescent="0.2">
@@ -46126,7 +46126,7 @@
         <v>4</v>
       </c>
       <c r="G866" s="111" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="867" spans="1:7" x14ac:dyDescent="0.2">
@@ -46137,7 +46137,7 @@
         <v>343</v>
       </c>
       <c r="C867" s="53" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="D867" s="9">
         <v>1</v>
@@ -46149,7 +46149,7 @@
         <v>1</v>
       </c>
       <c r="G867" s="10" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="868" spans="1:7" x14ac:dyDescent="0.2">
@@ -46160,10 +46160,10 @@
         <v>343</v>
       </c>
       <c r="C868" s="10" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="D868" s="15" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="E868" s="8">
         <v>5</v>
@@ -46172,7 +46172,7 @@
         <v>1</v>
       </c>
       <c r="G868" s="10" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="869" spans="1:7" x14ac:dyDescent="0.2">
@@ -46183,7 +46183,7 @@
         <v>343</v>
       </c>
       <c r="C869" s="53" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="D869" s="9">
         <v>9</v>
@@ -46195,7 +46195,7 @@
         <v>2</v>
       </c>
       <c r="G869" s="10" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="870" spans="1:7" x14ac:dyDescent="0.2">
@@ -46209,7 +46209,7 @@
         <v>1174</v>
       </c>
       <c r="D870" s="15" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="E870" s="8">
         <v>5</v>
@@ -46218,7 +46218,7 @@
         <v>2</v>
       </c>
       <c r="G870" s="10" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="871" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -46232,7 +46232,7 @@
         <v>1174</v>
       </c>
       <c r="D871" s="15" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="E871" s="14">
         <v>2</v>
@@ -46241,7 +46241,7 @@
         <v>3</v>
       </c>
       <c r="G871" s="15" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="872" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -46255,7 +46255,7 @@
         <v>1174</v>
       </c>
       <c r="D872" s="15" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="E872" s="14">
         <v>2</v>
@@ -46264,7 +46264,7 @@
         <v>4</v>
       </c>
       <c r="G872" s="15" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="873" spans="1:7" s="84" customFormat="1" x14ac:dyDescent="0.2">
@@ -46275,10 +46275,10 @@
         <v>344</v>
       </c>
       <c r="C873" s="43" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="D873" s="43" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="E873" s="84">
         <v>2</v>
@@ -46310,7 +46310,7 @@
         <v>1</v>
       </c>
       <c r="G874" s="43" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="875" spans="1:7" s="84" customFormat="1" x14ac:dyDescent="0.2">
@@ -46321,10 +46321,10 @@
         <v>345</v>
       </c>
       <c r="C875" s="43" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="D875" s="43" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="E875" s="84">
         <v>2</v>
@@ -46356,7 +46356,7 @@
         <v>1</v>
       </c>
       <c r="G876" s="43" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="877" spans="1:7" x14ac:dyDescent="0.2">
@@ -46370,7 +46370,7 @@
         <v>1168</v>
       </c>
       <c r="D877" s="15" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="E877" s="8">
         <v>2</v>
@@ -46379,7 +46379,7 @@
         <v>1</v>
       </c>
       <c r="G877" s="10" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="878" spans="1:7" x14ac:dyDescent="0.2">
@@ -46393,7 +46393,7 @@
         <v>1045</v>
       </c>
       <c r="D878" s="9" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="E878" s="9">
         <v>2</v>
@@ -46402,7 +46402,7 @@
         <v>2</v>
       </c>
       <c r="G878" s="53" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="879" spans="1:7" x14ac:dyDescent="0.2">
@@ -46416,7 +46416,7 @@
         <v>1045</v>
       </c>
       <c r="D879" s="53" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="E879" s="9">
         <v>2</v>
@@ -46425,7 +46425,7 @@
         <v>3</v>
       </c>
       <c r="G879" s="53" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="880" spans="1:7" x14ac:dyDescent="0.2">
@@ -46439,7 +46439,7 @@
         <v>1045</v>
       </c>
       <c r="D880" s="53" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="E880" s="9">
         <v>2</v>
@@ -46448,7 +46448,7 @@
         <v>4</v>
       </c>
       <c r="G880" s="53" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="881" spans="1:7" x14ac:dyDescent="0.2">
@@ -46462,7 +46462,7 @@
         <v>1174</v>
       </c>
       <c r="D881" s="15" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="E881" s="8">
         <v>2</v>
@@ -46471,7 +46471,7 @@
         <v>1</v>
       </c>
       <c r="G881" s="10" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="882" spans="1:7" x14ac:dyDescent="0.2">
@@ -46485,7 +46485,7 @@
         <v>1168</v>
       </c>
       <c r="D882" s="15" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="E882" s="8">
         <v>5</v>
@@ -46494,7 +46494,7 @@
         <v>1</v>
       </c>
       <c r="G882" s="10" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="883" spans="1:7" x14ac:dyDescent="0.2">
@@ -46517,7 +46517,7 @@
         <v>1</v>
       </c>
       <c r="G883" s="10" t="s">
-        <v>1985</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="884" spans="1:7" x14ac:dyDescent="0.2">
@@ -46531,7 +46531,7 @@
         <v>1174</v>
       </c>
       <c r="D884" s="15" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="E884" s="8">
         <v>2</v>
@@ -46673,7 +46673,7 @@
         <v>897</v>
       </c>
       <c r="D5" s="53" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -46690,13 +46690,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="68" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>897</v>
       </c>
       <c r="D6" s="53" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -46713,10 +46713,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="68" t="s">
-        <v>1984</v>
+        <v>1982</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>1623</v>
@@ -46742,7 +46742,7 @@
         <v>897</v>
       </c>
       <c r="D8" s="53" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -46759,13 +46759,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="68" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>897</v>
       </c>
       <c r="D9" s="53" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -46774,7 +46774,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -46782,13 +46782,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="68" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>897</v>
       </c>
       <c r="D10" s="53" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -46797,7 +46797,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -46805,13 +46805,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="68" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>897</v>
       </c>
       <c r="D11" s="53" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -46820,7 +46820,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
     </row>
   </sheetData>
@@ -46913,7 +46913,7 @@
         <v>865</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">

--- a/config_12.15/permission_server_config.xlsx
+++ b/config_12.15/permission_server_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4557" uniqueCount="1988">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4569" uniqueCount="1988">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -9069,26 +9069,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>cpl_recharge_above</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>cjj_cpl_recharge_above</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐天天捕鱼充值6元以上</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>冲金鸡平台CPL充值6元以上</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>该档次需要充值6元以上</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>cjj_official</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -9189,50 +9169,46 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
+    <t>3D捕鱼CPL用户</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>signin_cpl</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>signin_notcpl</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼非CPL用户</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_task_fish_daily_cpl</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日任务-捕鱼官方</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日任务-捕鱼CPL</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_official</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>是官方玩家才可游戏</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
     <t>cjj_cpl</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>3D捕鱼CPL用户</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>signin_cpl</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>signin_notcpl</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>3D捕鱼非CPL用户</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_own_task_p_task_fish_daily_cpl</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>每日任务-捕鱼官方</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>每日任务-捕鱼CPL</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_official</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>是官方玩家才可游戏</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>cjj_cpl</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>是冲金鸡CPL玩家</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -9242,6 +9218,30 @@
   </si>
   <si>
     <t>actp_own_task_p_task_fish_daily_cps</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐天天捕鱼CPL（小额用户、VIP1及以上）没有下载了玩棋牌游戏（是否有账号）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>cjj_type_plat</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲金鸡平台CPL（小额用户、VIP1及以上）没有下载了鲸鱼斗地主游戏（是否有账号）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag_plat_own_cjj</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_cpl</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>hlby_type_plat</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -10070,11 +10070,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q439"/>
+  <dimension ref="A1:Q438"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A176" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C195" sqref="C195"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A416" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A432" sqref="A432"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -14606,56 +14606,56 @@
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A431" s="27" t="s">
-        <v>1950</v>
+        <v>1987</v>
       </c>
       <c r="B431" s="27" t="s">
-        <v>1952</v>
+        <v>1982</v>
       </c>
       <c r="C431" s="3">
         <v>344</v>
       </c>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A433" s="27" t="s">
-        <v>1951</v>
-      </c>
-      <c r="B433" s="27" t="s">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A432" s="27" t="s">
+        <v>1983</v>
+      </c>
+      <c r="B432" s="27" t="s">
+        <v>1984</v>
+      </c>
+      <c r="C432" s="3">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A434" s="27" t="s">
+        <v>1967</v>
+      </c>
+      <c r="B434" s="27" t="s">
         <v>1953</v>
       </c>
-      <c r="C433" s="3">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A435" s="27" t="s">
+      <c r="C434" s="3">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A436" s="27" t="s">
+        <v>1970</v>
+      </c>
+      <c r="B436" s="27" t="s">
+        <v>1969</v>
+      </c>
+      <c r="C436" s="3">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A438" s="27" t="s">
+        <v>1971</v>
+      </c>
+      <c r="B438" s="27" t="s">
         <v>1972</v>
       </c>
-      <c r="B435" s="27" t="s">
-        <v>1958</v>
-      </c>
-      <c r="C435" s="3">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A437" s="27" t="s">
-        <v>1976</v>
-      </c>
-      <c r="B437" s="27" t="s">
-        <v>1975</v>
-      </c>
-      <c r="C437" s="3">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A439" s="27" t="s">
-        <v>1977</v>
-      </c>
-      <c r="B439" s="27" t="s">
-        <v>1978</v>
-      </c>
-      <c r="C439" s="3">
+      <c r="C438" s="3">
         <v>348</v>
       </c>
     </row>
@@ -14671,7 +14671,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:O338"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="G323" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -24989,7 +24989,7 @@
         <v>1</v>
       </c>
       <c r="C304" s="30" t="s">
-        <v>1987</v>
+        <v>1981</v>
       </c>
       <c r="D304" s="30" t="s">
         <v>1690</v>
@@ -26055,10 +26055,10 @@
         <v>1</v>
       </c>
       <c r="C337" s="30" t="s">
-        <v>1986</v>
+        <v>1980</v>
       </c>
       <c r="D337" s="30" t="s">
-        <v>1980</v>
+        <v>1974</v>
       </c>
       <c r="G337" s="17">
         <v>349</v>
@@ -26087,10 +26087,10 @@
         <v>1</v>
       </c>
       <c r="C338" s="30" t="s">
-        <v>1979</v>
+        <v>1973</v>
       </c>
       <c r="D338" s="30" t="s">
-        <v>1981</v>
+        <v>1975</v>
       </c>
       <c r="E338" s="17"/>
       <c r="F338" s="17"/>
@@ -26124,13 +26124,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:I884"/>
+  <dimension ref="A1:I888"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C856" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D878" sqref="D878"/>
+      <selection pane="bottomRight" activeCell="A875" sqref="A875"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -28327,7 +28327,7 @@
         <v>865</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>1967</v>
+        <v>1962</v>
       </c>
       <c r="E94" s="8">
         <v>2</v>
@@ -29615,7 +29615,7 @@
         <v>1045</v>
       </c>
       <c r="D150" s="113" t="s">
-        <v>1984</v>
+        <v>1978</v>
       </c>
       <c r="E150" s="112">
         <v>2</v>
@@ -29624,7 +29624,7 @@
         <v>4</v>
       </c>
       <c r="G150" s="113" t="s">
-        <v>1985</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="151" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -30305,7 +30305,7 @@
         <v>1045</v>
       </c>
       <c r="D180" s="94" t="s">
-        <v>1959</v>
+        <v>1954</v>
       </c>
       <c r="E180" s="14">
         <v>2</v>
@@ -30719,7 +30719,7 @@
         <v>1045</v>
       </c>
       <c r="D198" s="105" t="s">
-        <v>1959</v>
+        <v>1954</v>
       </c>
       <c r="E198" s="103">
         <v>2</v>
@@ -40050,7 +40050,7 @@
         <v>1168</v>
       </c>
       <c r="D603" s="15" t="s">
-        <v>1959</v>
+        <v>1954</v>
       </c>
       <c r="E603" s="14">
         <v>2</v>
@@ -40188,7 +40188,7 @@
         <v>1168</v>
       </c>
       <c r="D609" s="15" t="s">
-        <v>1959</v>
+        <v>1954</v>
       </c>
       <c r="E609" s="14">
         <v>2</v>
@@ -40326,7 +40326,7 @@
         <v>1168</v>
       </c>
       <c r="D615" s="15" t="s">
-        <v>1959</v>
+        <v>1954</v>
       </c>
       <c r="E615" s="14">
         <v>2</v>
@@ -40464,7 +40464,7 @@
         <v>1168</v>
       </c>
       <c r="D621" s="15" t="s">
-        <v>1959</v>
+        <v>1954</v>
       </c>
       <c r="E621" s="14">
         <v>2</v>
@@ -40602,7 +40602,7 @@
         <v>1168</v>
       </c>
       <c r="D627" s="15" t="s">
-        <v>1959</v>
+        <v>1954</v>
       </c>
       <c r="E627" s="14">
         <v>2</v>
@@ -40740,7 +40740,7 @@
         <v>1168</v>
       </c>
       <c r="D633" s="15" t="s">
-        <v>1959</v>
+        <v>1954</v>
       </c>
       <c r="E633" s="14">
         <v>2</v>
@@ -44794,7 +44794,7 @@
         <v>1045</v>
       </c>
       <c r="D809" s="9" t="s">
-        <v>1959</v>
+        <v>1954</v>
       </c>
       <c r="E809" s="9">
         <v>5</v>
@@ -44863,7 +44863,7 @@
         <v>1045</v>
       </c>
       <c r="D812" s="10" t="s">
-        <v>1959</v>
+        <v>1954</v>
       </c>
       <c r="E812" s="9">
         <v>5</v>
@@ -45185,7 +45185,7 @@
         <v>1045</v>
       </c>
       <c r="D826" s="9" t="s">
-        <v>1959</v>
+        <v>1954</v>
       </c>
       <c r="E826" s="9">
         <v>2</v>
@@ -45300,7 +45300,7 @@
         <v>1045</v>
       </c>
       <c r="D831" s="9" t="s">
-        <v>1959</v>
+        <v>1954</v>
       </c>
       <c r="E831" s="9">
         <v>5</v>
@@ -45346,7 +45346,7 @@
         <v>1045</v>
       </c>
       <c r="D833" s="9" t="s">
-        <v>1959</v>
+        <v>1954</v>
       </c>
       <c r="E833" s="9">
         <v>5</v>
@@ -45622,7 +45622,7 @@
         <v>1045</v>
       </c>
       <c r="D845" s="9" t="s">
-        <v>1959</v>
+        <v>1954</v>
       </c>
       <c r="E845" s="9">
         <v>5</v>
@@ -45674,7 +45674,7 @@
         <v>1045</v>
       </c>
       <c r="D847" s="9" t="s">
-        <v>1959</v>
+        <v>1954</v>
       </c>
       <c r="E847" s="9">
         <v>2</v>
@@ -45726,7 +45726,7 @@
         <v>1045</v>
       </c>
       <c r="D849" s="9" t="s">
-        <v>1959</v>
+        <v>1954</v>
       </c>
       <c r="E849" s="9">
         <v>2</v>
@@ -45772,7 +45772,7 @@
         <v>1045</v>
       </c>
       <c r="D851" s="9" t="s">
-        <v>1959</v>
+        <v>1954</v>
       </c>
       <c r="E851" s="9">
         <v>5</v>
@@ -45864,7 +45864,7 @@
         <v>1045</v>
       </c>
       <c r="D855" s="14" t="s">
-        <v>1959</v>
+        <v>1954</v>
       </c>
       <c r="E855" s="14">
         <v>5</v>
@@ -45910,7 +45910,7 @@
         <v>1174</v>
       </c>
       <c r="D857" s="10" t="s">
-        <v>1959</v>
+        <v>1954</v>
       </c>
       <c r="E857" s="8">
         <v>5</v>
@@ -45933,7 +45933,7 @@
         <v>1174</v>
       </c>
       <c r="D858" s="10" t="s">
-        <v>1959</v>
+        <v>1954</v>
       </c>
       <c r="E858" s="8">
         <v>2</v>
@@ -46094,7 +46094,7 @@
         <v>1045</v>
       </c>
       <c r="D865" s="110" t="s">
-        <v>1959</v>
+        <v>1954</v>
       </c>
       <c r="E865" s="110">
         <v>2</v>
@@ -46209,7 +46209,7 @@
         <v>1174</v>
       </c>
       <c r="D870" s="15" t="s">
-        <v>1964</v>
+        <v>1959</v>
       </c>
       <c r="E870" s="8">
         <v>5</v>
@@ -46255,7 +46255,7 @@
         <v>1174</v>
       </c>
       <c r="D872" s="15" t="s">
-        <v>1959</v>
+        <v>1954</v>
       </c>
       <c r="E872" s="14">
         <v>2</v>
@@ -46267,110 +46267,110 @@
         <v>1939</v>
       </c>
     </row>
-    <row r="873" spans="1:7" s="84" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A873" s="8">
         <v>872</v>
       </c>
-      <c r="B873" s="84">
+      <c r="B873" s="8">
         <v>344</v>
       </c>
-      <c r="C873" s="43" t="s">
-        <v>1930</v>
-      </c>
-      <c r="D873" s="43" t="s">
-        <v>1932</v>
-      </c>
-      <c r="E873" s="84">
-        <v>2</v>
-      </c>
-      <c r="F873" s="84">
-        <v>1</v>
-      </c>
-      <c r="G873" s="43" t="s">
-        <v>1539</v>
-      </c>
-    </row>
-    <row r="874" spans="1:7" s="84" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C873" s="10" t="s">
+        <v>865</v>
+      </c>
+      <c r="D873" s="10" t="s">
+        <v>1985</v>
+      </c>
+      <c r="E873" s="8">
+        <v>5</v>
+      </c>
+      <c r="F873" s="8">
+        <v>1</v>
+      </c>
+      <c r="G873" s="10" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="874" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A874" s="8">
         <v>873</v>
       </c>
-      <c r="B874" s="84">
+      <c r="B874" s="8">
         <v>344</v>
       </c>
-      <c r="C874" s="84" t="s">
-        <v>912</v>
-      </c>
-      <c r="D874" s="43">
-        <v>600</v>
-      </c>
-      <c r="E874" s="84">
-        <v>3</v>
-      </c>
-      <c r="F874" s="84">
-        <v>1</v>
-      </c>
-      <c r="G874" s="43" t="s">
-        <v>1954</v>
-      </c>
-    </row>
-    <row r="875" spans="1:7" s="84" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C874" s="10" t="s">
+        <v>865</v>
+      </c>
+      <c r="D874" s="10" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E874" s="8">
+        <v>2</v>
+      </c>
+      <c r="F874" s="8">
+        <v>1</v>
+      </c>
+      <c r="G874" s="10" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="875" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A875" s="8">
         <v>874</v>
       </c>
-      <c r="B875" s="84">
-        <v>345</v>
-      </c>
-      <c r="C875" s="43" t="s">
-        <v>1930</v>
-      </c>
-      <c r="D875" s="43" t="s">
-        <v>1974</v>
-      </c>
-      <c r="E875" s="84">
-        <v>2</v>
-      </c>
-      <c r="F875" s="84">
-        <v>1</v>
-      </c>
-      <c r="G875" s="43" t="s">
-        <v>1539</v>
-      </c>
-    </row>
-    <row r="876" spans="1:7" s="84" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B875" s="8">
+        <v>344</v>
+      </c>
+      <c r="C875" s="10" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D875" s="10" t="s">
+        <v>1986</v>
+      </c>
+      <c r="E875" s="8">
+        <v>2</v>
+      </c>
+      <c r="F875" s="8">
+        <v>1</v>
+      </c>
+      <c r="G875" s="10" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="876" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A876" s="8">
         <v>875</v>
       </c>
-      <c r="B876" s="84">
-        <v>345</v>
-      </c>
-      <c r="C876" s="84" t="s">
+      <c r="B876" s="8">
+        <v>344</v>
+      </c>
+      <c r="C876" s="10" t="s">
         <v>912</v>
       </c>
-      <c r="D876" s="43">
+      <c r="D876" s="8">
         <v>600</v>
       </c>
-      <c r="E876" s="84">
+      <c r="E876" s="8">
         <v>3</v>
       </c>
-      <c r="F876" s="84">
-        <v>1</v>
-      </c>
-      <c r="G876" s="43" t="s">
-        <v>1954</v>
-      </c>
-    </row>
-    <row r="877" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F876" s="8">
+        <v>1</v>
+      </c>
+      <c r="G876" s="10" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="877" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A877" s="8">
         <v>876</v>
       </c>
-      <c r="B877" s="9">
-        <v>346</v>
+      <c r="B877" s="8">
+        <v>345</v>
       </c>
       <c r="C877" s="10" t="s">
-        <v>1168</v>
-      </c>
-      <c r="D877" s="15" t="s">
-        <v>1962</v>
+        <v>865</v>
+      </c>
+      <c r="D877" s="10" t="s">
+        <v>1985</v>
       </c>
       <c r="E877" s="8">
         <v>2</v>
@@ -46379,76 +46379,76 @@
         <v>1</v>
       </c>
       <c r="G877" s="10" t="s">
-        <v>1968</v>
-      </c>
-    </row>
-    <row r="878" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="878" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A878" s="8">
         <v>877</v>
       </c>
-      <c r="B878" s="9">
-        <v>346</v>
-      </c>
-      <c r="C878" s="9" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D878" s="9" t="s">
-        <v>1963</v>
-      </c>
-      <c r="E878" s="9">
-        <v>2</v>
-      </c>
-      <c r="F878" s="9">
-        <v>2</v>
-      </c>
-      <c r="G878" s="53" t="s">
-        <v>1969</v>
-      </c>
-    </row>
-    <row r="879" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B878" s="8">
+        <v>345</v>
+      </c>
+      <c r="C878" s="10" t="s">
+        <v>865</v>
+      </c>
+      <c r="D878" s="10" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E878" s="8">
+        <v>5</v>
+      </c>
+      <c r="F878" s="8">
+        <v>1</v>
+      </c>
+      <c r="G878" s="10" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="879" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A879" s="8">
         <v>878</v>
       </c>
-      <c r="B879" s="9">
-        <v>346</v>
-      </c>
-      <c r="C879" s="9" t="s">
+      <c r="B879" s="8">
+        <v>345</v>
+      </c>
+      <c r="C879" s="10" t="s">
         <v>1045</v>
       </c>
-      <c r="D879" s="53" t="s">
-        <v>1965</v>
-      </c>
-      <c r="E879" s="9">
-        <v>2</v>
-      </c>
-      <c r="F879" s="9">
-        <v>3</v>
-      </c>
-      <c r="G879" s="53" t="s">
-        <v>1970</v>
-      </c>
-    </row>
-    <row r="880" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D879" s="10" t="s">
+        <v>1968</v>
+      </c>
+      <c r="E879" s="8">
+        <v>2</v>
+      </c>
+      <c r="F879" s="8">
+        <v>1</v>
+      </c>
+      <c r="G879" s="10" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="880" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A880" s="8">
         <v>879</v>
       </c>
-      <c r="B880" s="9">
-        <v>346</v>
-      </c>
-      <c r="C880" s="9" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D880" s="53" t="s">
-        <v>1966</v>
-      </c>
-      <c r="E880" s="9">
-        <v>2</v>
-      </c>
-      <c r="F880" s="9">
-        <v>4</v>
-      </c>
-      <c r="G880" s="53" t="s">
-        <v>1971</v>
+      <c r="B880" s="8">
+        <v>345</v>
+      </c>
+      <c r="C880" s="10" t="s">
+        <v>912</v>
+      </c>
+      <c r="D880" s="8">
+        <v>600</v>
+      </c>
+      <c r="E880" s="8">
+        <v>3</v>
+      </c>
+      <c r="F880" s="8">
+        <v>1</v>
+      </c>
+      <c r="G880" s="10" t="s">
+        <v>1015</v>
       </c>
     </row>
     <row r="881" spans="1:7" x14ac:dyDescent="0.2">
@@ -46456,13 +46456,13 @@
         <v>880</v>
       </c>
       <c r="B881" s="9">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C881" s="10" t="s">
-        <v>1174</v>
+        <v>1168</v>
       </c>
       <c r="D881" s="15" t="s">
-        <v>1964</v>
+        <v>1957</v>
       </c>
       <c r="E881" s="8">
         <v>2</v>
@@ -46471,7 +46471,7 @@
         <v>1</v>
       </c>
       <c r="G881" s="10" t="s">
-        <v>1938</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="882" spans="1:7" x14ac:dyDescent="0.2">
@@ -46479,22 +46479,22 @@
         <v>881</v>
       </c>
       <c r="B882" s="9">
-        <v>348</v>
-      </c>
-      <c r="C882" s="10" t="s">
-        <v>1168</v>
-      </c>
-      <c r="D882" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="C882" s="9" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D882" s="9" t="s">
+        <v>1958</v>
+      </c>
+      <c r="E882" s="9">
+        <v>2</v>
+      </c>
+      <c r="F882" s="9">
+        <v>2</v>
+      </c>
+      <c r="G882" s="53" t="s">
         <v>1964</v>
-      </c>
-      <c r="E882" s="8">
-        <v>5</v>
-      </c>
-      <c r="F882" s="8">
-        <v>1</v>
-      </c>
-      <c r="G882" s="10" t="s">
-        <v>1938</v>
       </c>
     </row>
     <row r="883" spans="1:7" x14ac:dyDescent="0.2">
@@ -46502,22 +46502,22 @@
         <v>882</v>
       </c>
       <c r="B883" s="9">
-        <v>349</v>
-      </c>
-      <c r="C883" s="10" t="s">
-        <v>1174</v>
-      </c>
-      <c r="D883" s="15" t="s">
-        <v>1628</v>
-      </c>
-      <c r="E883" s="8">
-        <v>2</v>
-      </c>
-      <c r="F883" s="8">
-        <v>1</v>
-      </c>
-      <c r="G883" s="10" t="s">
-        <v>1983</v>
+        <v>346</v>
+      </c>
+      <c r="C883" s="9" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D883" s="53" t="s">
+        <v>1960</v>
+      </c>
+      <c r="E883" s="9">
+        <v>2</v>
+      </c>
+      <c r="F883" s="9">
+        <v>3</v>
+      </c>
+      <c r="G883" s="53" t="s">
+        <v>1965</v>
       </c>
     </row>
     <row r="884" spans="1:7" x14ac:dyDescent="0.2">
@@ -46525,21 +46525,113 @@
         <v>883</v>
       </c>
       <c r="B884" s="9">
+        <v>346</v>
+      </c>
+      <c r="C884" s="9" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D884" s="53" t="s">
+        <v>1961</v>
+      </c>
+      <c r="E884" s="9">
+        <v>2</v>
+      </c>
+      <c r="F884" s="9">
+        <v>4</v>
+      </c>
+      <c r="G884" s="53" t="s">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="885" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A885" s="8">
+        <v>884</v>
+      </c>
+      <c r="B885" s="9">
+        <v>347</v>
+      </c>
+      <c r="C885" s="10" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D885" s="15" t="s">
+        <v>1959</v>
+      </c>
+      <c r="E885" s="8">
+        <v>2</v>
+      </c>
+      <c r="F885" s="8">
+        <v>1</v>
+      </c>
+      <c r="G885" s="10" t="s">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="886" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A886" s="8">
+        <v>885</v>
+      </c>
+      <c r="B886" s="9">
+        <v>348</v>
+      </c>
+      <c r="C886" s="10" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D886" s="15" t="s">
+        <v>1959</v>
+      </c>
+      <c r="E886" s="8">
+        <v>5</v>
+      </c>
+      <c r="F886" s="8">
+        <v>1</v>
+      </c>
+      <c r="G886" s="10" t="s">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="887" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A887" s="8">
+        <v>886</v>
+      </c>
+      <c r="B887" s="9">
+        <v>349</v>
+      </c>
+      <c r="C887" s="10" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D887" s="15" t="s">
+        <v>1628</v>
+      </c>
+      <c r="E887" s="8">
+        <v>2</v>
+      </c>
+      <c r="F887" s="8">
+        <v>1</v>
+      </c>
+      <c r="G887" s="10" t="s">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="888" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A888" s="8">
+        <v>887</v>
+      </c>
+      <c r="B888" s="9">
         <v>350</v>
       </c>
-      <c r="C884" s="10" t="s">
+      <c r="C888" s="10" t="s">
         <v>1174</v>
       </c>
-      <c r="D884" s="15" t="s">
+      <c r="D888" s="15" t="s">
         <v>1860</v>
       </c>
-      <c r="E884" s="8">
-        <v>2</v>
-      </c>
-      <c r="F884" s="8">
-        <v>1</v>
-      </c>
-      <c r="G884" s="10" t="s">
+      <c r="E888" s="8">
+        <v>2</v>
+      </c>
+      <c r="F888" s="8">
+        <v>1</v>
+      </c>
+      <c r="G888" s="10" t="s">
         <v>1539</v>
       </c>
     </row>
@@ -46713,7 +46805,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="68" t="s">
-        <v>1982</v>
+        <v>1976</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>1758</v>
@@ -46759,13 +46851,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="68" t="s">
-        <v>1961</v>
+        <v>1956</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>897</v>
       </c>
       <c r="D9" s="53" t="s">
-        <v>1957</v>
+        <v>1952</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -46782,13 +46874,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="68" t="s">
-        <v>1973</v>
+        <v>1968</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>897</v>
       </c>
       <c r="D10" s="53" t="s">
-        <v>1960</v>
+        <v>1955</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -46805,13 +46897,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="68" t="s">
-        <v>1955</v>
+        <v>1950</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>897</v>
       </c>
       <c r="D11" s="53" t="s">
-        <v>1956</v>
+        <v>1951</v>
       </c>
       <c r="E11">
         <v>2</v>
